--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4577,28 +4577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5188.755646148686</v>
+        <v>5378.519055940179</v>
       </c>
       <c r="AB2" t="n">
-        <v>7099.484386804364</v>
+        <v>7359.127055851892</v>
       </c>
       <c r="AC2" t="n">
-        <v>6421.919561116405</v>
+        <v>6656.782298240801</v>
       </c>
       <c r="AD2" t="n">
-        <v>5188755.646148685</v>
+        <v>5378519.055940179</v>
       </c>
       <c r="AE2" t="n">
-        <v>7099484.386804365</v>
+        <v>7359127.055851892</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.260667956943446e-07</v>
+        <v>1.046744661698343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.85625</v>
       </c>
       <c r="AH2" t="n">
-        <v>6421919.561116405</v>
+        <v>6656782.2982408</v>
       </c>
     </row>
     <row r="3">
@@ -4683,28 +4683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1778.206009354648</v>
+        <v>1873.087803758946</v>
       </c>
       <c r="AB3" t="n">
-        <v>2433.019910911516</v>
+        <v>2562.841367904819</v>
       </c>
       <c r="AC3" t="n">
-        <v>2200.815905379012</v>
+        <v>2318.247384722435</v>
       </c>
       <c r="AD3" t="n">
-        <v>1778206.009354648</v>
+        <v>1873087.803758946</v>
       </c>
       <c r="AE3" t="n">
-        <v>2433019.910911515</v>
+        <v>2562841.36790482</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.361247593052829e-06</v>
+        <v>1.962462213845136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.32708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2200815.905379012</v>
+        <v>2318247.384722434</v>
       </c>
     </row>
     <row r="4">
@@ -4789,28 +4789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1374.530629397179</v>
+        <v>1452.231029065082</v>
       </c>
       <c r="AB4" t="n">
-        <v>1880.693447152833</v>
+        <v>1987.006561878161</v>
       </c>
       <c r="AC4" t="n">
-        <v>1701.202704126397</v>
+        <v>1797.369444393734</v>
       </c>
       <c r="AD4" t="n">
-        <v>1374530.629397179</v>
+        <v>1452231.029065082</v>
       </c>
       <c r="AE4" t="n">
-        <v>1880693.447152833</v>
+        <v>1987006.561878161</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.595537983626491e-06</v>
+        <v>2.300230332528588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.04791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1701202.704126397</v>
+        <v>1797369.444393734</v>
       </c>
     </row>
     <row r="5">
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1210.097927090279</v>
+        <v>1287.79823724963</v>
       </c>
       <c r="AB5" t="n">
-        <v>1655.709369597686</v>
+        <v>1762.022361853466</v>
       </c>
       <c r="AC5" t="n">
-        <v>1497.690791165977</v>
+        <v>1593.857420652087</v>
       </c>
       <c r="AD5" t="n">
-        <v>1210097.927090279</v>
+        <v>1287798.23724963</v>
       </c>
       <c r="AE5" t="n">
-        <v>1655709.369597686</v>
+        <v>1762022.361853466</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.718372671586033e-06</v>
+        <v>2.477316730991518e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1497690.791165977</v>
+        <v>1593857.420652087</v>
       </c>
     </row>
     <row r="6">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1118.069285312762</v>
+        <v>1195.684254617541</v>
       </c>
       <c r="AB6" t="n">
-        <v>1529.791721900553</v>
+        <v>1635.987947034135</v>
       </c>
       <c r="AC6" t="n">
-        <v>1383.79054703853</v>
+        <v>1479.851553492702</v>
       </c>
       <c r="AD6" t="n">
-        <v>1118069.285312762</v>
+        <v>1195684.254617541</v>
       </c>
       <c r="AE6" t="n">
-        <v>1529791.721900553</v>
+        <v>1635987.947034135</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.796129071446408e-06</v>
+        <v>2.589415365647982e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.92083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1383790.54703853</v>
+        <v>1479851.553492702</v>
       </c>
     </row>
     <row r="7">
@@ -5107,28 +5107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1063.861030898393</v>
+        <v>1132.84272191624</v>
       </c>
       <c r="AB7" t="n">
-        <v>1455.621596711412</v>
+        <v>1550.005389619456</v>
       </c>
       <c r="AC7" t="n">
-        <v>1316.699114499017</v>
+        <v>1402.075050680402</v>
       </c>
       <c r="AD7" t="n">
-        <v>1063861.030898393</v>
+        <v>1132842.72191624</v>
       </c>
       <c r="AE7" t="n">
-        <v>1455621.596711412</v>
+        <v>1550005.389619456</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.84893923420336e-06</v>
+        <v>2.665549898003779e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.4375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1316699.114499017</v>
+        <v>1402075.050680402</v>
       </c>
     </row>
     <row r="8">
@@ -5213,28 +5213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1025.400858949645</v>
+        <v>1094.382549967492</v>
       </c>
       <c r="AB8" t="n">
-        <v>1402.998692708099</v>
+        <v>1497.382485616143</v>
       </c>
       <c r="AC8" t="n">
-        <v>1269.09846659707</v>
+        <v>1354.474402778455</v>
       </c>
       <c r="AD8" t="n">
-        <v>1025400.858949645</v>
+        <v>1094382.549967492</v>
       </c>
       <c r="AE8" t="n">
-        <v>1402998.692708099</v>
+        <v>1497382.485616143</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.885556225507214e-06</v>
+        <v>2.718339311322301e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.11875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1269098.46659707</v>
+        <v>1354474.402778456</v>
       </c>
     </row>
     <row r="9">
@@ -5319,28 +5319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>984.5236414351613</v>
+        <v>1062.053269885369</v>
       </c>
       <c r="AB9" t="n">
-        <v>1347.068680329222</v>
+        <v>1453.148138340607</v>
       </c>
       <c r="AC9" t="n">
-        <v>1218.506336101368</v>
+        <v>1314.4617195236</v>
       </c>
       <c r="AD9" t="n">
-        <v>984523.6414351612</v>
+        <v>1062053.269885369</v>
       </c>
       <c r="AE9" t="n">
-        <v>1347068.680329222</v>
+        <v>1453148.138340607</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.915608417573325e-06</v>
+        <v>2.761664487193279e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.86666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1218506.336101368</v>
+        <v>1314461.7195236</v>
       </c>
     </row>
     <row r="10">
@@ -5425,28 +5425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>957.9552061715091</v>
+        <v>1027.022148535377</v>
       </c>
       <c r="AB10" t="n">
-        <v>1310.716575084854</v>
+        <v>1405.217012645547</v>
       </c>
       <c r="AC10" t="n">
-        <v>1185.623624761021</v>
+        <v>1271.105073193119</v>
       </c>
       <c r="AD10" t="n">
-        <v>957955.2061715091</v>
+        <v>1027022.148535377</v>
       </c>
       <c r="AE10" t="n">
-        <v>1310716.575084853</v>
+        <v>1405217.012645547</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.937928734981651e-06</v>
+        <v>2.793842894514928e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.68333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1185623.624761021</v>
+        <v>1271105.073193119</v>
       </c>
     </row>
     <row r="11">
@@ -5531,28 +5531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>935.42667094206</v>
+        <v>1004.493613305928</v>
       </c>
       <c r="AB11" t="n">
-        <v>1279.892039295092</v>
+        <v>1374.392476855786</v>
       </c>
       <c r="AC11" t="n">
-        <v>1157.740939404527</v>
+        <v>1243.222387836625</v>
       </c>
       <c r="AD11" t="n">
-        <v>935426.6709420601</v>
+        <v>1004493.613305928</v>
       </c>
       <c r="AE11" t="n">
-        <v>1279892.039295092</v>
+        <v>1374392.476855786</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.956601941702341e-06</v>
+        <v>2.820763392143497e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.53333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1157740.939404527</v>
+        <v>1243222.387836625</v>
       </c>
     </row>
     <row r="12">
@@ -5637,28 +5637,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>912.2721624492106</v>
+        <v>981.1685126124864</v>
       </c>
       <c r="AB12" t="n">
-        <v>1248.211019270355</v>
+        <v>1342.478045056201</v>
       </c>
       <c r="AC12" t="n">
-        <v>1129.08351146636</v>
+        <v>1214.353824615807</v>
       </c>
       <c r="AD12" t="n">
-        <v>912272.1624492105</v>
+        <v>981168.5126124865</v>
       </c>
       <c r="AE12" t="n">
-        <v>1248211.019270355</v>
+        <v>1342478.045056201</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.97119038445288e-06</v>
+        <v>2.841795030915816e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.41875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1129083.51146636</v>
+        <v>1214353.824615807</v>
       </c>
     </row>
     <row r="13">
@@ -5743,28 +5743,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>892.6442682139076</v>
+        <v>961.5406183771836</v>
       </c>
       <c r="AB13" t="n">
-        <v>1221.355268456033</v>
+        <v>1315.62229424188</v>
       </c>
       <c r="AC13" t="n">
-        <v>1104.790835817474</v>
+        <v>1190.061148966921</v>
       </c>
       <c r="AD13" t="n">
-        <v>892644.2682139076</v>
+        <v>961540.6183771836</v>
       </c>
       <c r="AE13" t="n">
-        <v>1221355.268456033</v>
+        <v>1315622.29424188</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.986216480485936e-06</v>
+        <v>2.863457618851305e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.30208333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1104790.835817474</v>
+        <v>1190061.148966921</v>
       </c>
     </row>
     <row r="14">
@@ -5849,28 +5849,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>875.0133456319344</v>
+        <v>943.9096957952103</v>
       </c>
       <c r="AB14" t="n">
-        <v>1197.231862357969</v>
+        <v>1291.498888143816</v>
       </c>
       <c r="AC14" t="n">
-        <v>1082.969733739996</v>
+        <v>1168.240046889443</v>
       </c>
       <c r="AD14" t="n">
-        <v>875013.3456319344</v>
+        <v>943909.6957952103</v>
       </c>
       <c r="AE14" t="n">
-        <v>1197231.862357969</v>
+        <v>1291498.888143816</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.997595465831357e-06</v>
+        <v>2.879862297093715e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.21458333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1082969.733739996</v>
+        <v>1168240.046889443</v>
       </c>
     </row>
     <row r="15">
@@ -5955,28 +5955,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>861.1823710572808</v>
+        <v>921.6160351342162</v>
       </c>
       <c r="AB15" t="n">
-        <v>1178.307712765394</v>
+        <v>1260.995718100549</v>
       </c>
       <c r="AC15" t="n">
-        <v>1065.851678424326</v>
+        <v>1140.648056583638</v>
       </c>
       <c r="AD15" t="n">
-        <v>861182.3710572808</v>
+        <v>921616.0351342162</v>
       </c>
       <c r="AE15" t="n">
-        <v>1178307.712765394</v>
+        <v>1260995.718100549</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.003868496214088e-06</v>
+        <v>2.888905901765812e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1065851.678424326</v>
+        <v>1140648.056583638</v>
       </c>
     </row>
     <row r="16">
@@ -6061,28 +6061,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>854.8715125820096</v>
+        <v>915.305176658945</v>
       </c>
       <c r="AB16" t="n">
-        <v>1169.672917784102</v>
+        <v>1252.360923119257</v>
       </c>
       <c r="AC16" t="n">
-        <v>1058.040976157037</v>
+        <v>1132.837354316349</v>
       </c>
       <c r="AD16" t="n">
-        <v>854871.5125820095</v>
+        <v>915305.176658945</v>
       </c>
       <c r="AE16" t="n">
-        <v>1169672.917784102</v>
+        <v>1252360.923119257</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.009120335604283e-06</v>
+        <v>2.896477291723847e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.12708333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1058040.976157037</v>
+        <v>1132837.354316349</v>
       </c>
     </row>
     <row r="17">
@@ -6167,28 +6167,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>858.3091606760067</v>
+        <v>918.7428247529422</v>
       </c>
       <c r="AB17" t="n">
-        <v>1174.376459564639</v>
+        <v>1257.064464899794</v>
       </c>
       <c r="AC17" t="n">
-        <v>1062.295618511502</v>
+        <v>1137.091996670815</v>
       </c>
       <c r="AD17" t="n">
-        <v>858309.1606760067</v>
+        <v>918742.8247529422</v>
       </c>
       <c r="AE17" t="n">
-        <v>1174376.459564639</v>
+        <v>1257064.464899794</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.008974451176777e-06</v>
+        <v>2.896266975336124e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.12916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1062295.618511502</v>
+        <v>1137091.996670814</v>
       </c>
     </row>
   </sheetData>
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3154.045441194542</v>
+        <v>3297.056300775022</v>
       </c>
       <c r="AB2" t="n">
-        <v>4315.504119307005</v>
+        <v>4511.177886578873</v>
       </c>
       <c r="AC2" t="n">
-        <v>3903.638463008254</v>
+        <v>4080.637400561545</v>
       </c>
       <c r="AD2" t="n">
-        <v>3154045.441194542</v>
+        <v>3297056.300775022</v>
       </c>
       <c r="AE2" t="n">
-        <v>4315504.119307005</v>
+        <v>4511177.886578873</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.540871538105957e-07</v>
+        <v>1.396747701419045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.95208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3903638.463008254</v>
+        <v>4080637.400561545</v>
       </c>
     </row>
     <row r="3">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1402.460145962785</v>
+        <v>1486.549130166794</v>
       </c>
       <c r="AB3" t="n">
-        <v>1918.907843881203</v>
+        <v>2033.962101813292</v>
       </c>
       <c r="AC3" t="n">
-        <v>1735.769972465254</v>
+        <v>1839.843613499969</v>
       </c>
       <c r="AD3" t="n">
-        <v>1402460.145962785</v>
+        <v>1486549.130166794</v>
       </c>
       <c r="AE3" t="n">
-        <v>1918907.843881203</v>
+        <v>2033962.101813292</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.537677002558709e-06</v>
+        <v>2.251101285947271e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.44791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1735769.972465254</v>
+        <v>1839843.613499969</v>
       </c>
     </row>
     <row r="4">
@@ -6676,28 +6676,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1122.985880511712</v>
+        <v>1206.989434352599</v>
       </c>
       <c r="AB4" t="n">
-        <v>1536.518824356629</v>
+        <v>1651.456192696972</v>
       </c>
       <c r="AC4" t="n">
-        <v>1389.875624277746</v>
+        <v>1493.843531499296</v>
       </c>
       <c r="AD4" t="n">
-        <v>1122985.880511712</v>
+        <v>1206989.434352599</v>
       </c>
       <c r="AE4" t="n">
-        <v>1536518.824356629</v>
+        <v>1651456.192696972</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.749864053849076e-06</v>
+        <v>2.561735146781687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.96666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1389875.624277746</v>
+        <v>1493843.531499295</v>
       </c>
     </row>
     <row r="5">
@@ -6782,28 +6782,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1009.627303153162</v>
+        <v>1085.298774293618</v>
       </c>
       <c r="AB5" t="n">
-        <v>1381.416617787183</v>
+        <v>1484.953662991249</v>
       </c>
       <c r="AC5" t="n">
-        <v>1249.576154615973</v>
+        <v>1343.231769540919</v>
       </c>
       <c r="AD5" t="n">
-        <v>1009627.303153162</v>
+        <v>1085298.774293618</v>
       </c>
       <c r="AE5" t="n">
-        <v>1381416.617787183</v>
+        <v>1484953.662991249</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.857617648885578e-06</v>
+        <v>2.719482356337713e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.925</v>
       </c>
       <c r="AH5" t="n">
-        <v>1249576.154615973</v>
+        <v>1343231.769540919</v>
       </c>
     </row>
     <row r="6">
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>945.4483263334286</v>
+        <v>1012.702463427432</v>
       </c>
       <c r="AB6" t="n">
-        <v>1293.604110325795</v>
+        <v>1385.624187740936</v>
       </c>
       <c r="AC6" t="n">
-        <v>1170.144349621072</v>
+        <v>1253.382159998702</v>
       </c>
       <c r="AD6" t="n">
-        <v>945448.3263334285</v>
+        <v>1012702.463427432</v>
       </c>
       <c r="AE6" t="n">
-        <v>1293604.110325795</v>
+        <v>1385624.187740936</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.926284155526486e-06</v>
+        <v>2.820007538897926e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.32291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1170144.349621072</v>
+        <v>1253382.159998702</v>
       </c>
     </row>
     <row r="7">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>892.8800499027902</v>
+        <v>968.466180188674</v>
       </c>
       <c r="AB7" t="n">
-        <v>1221.677875364716</v>
+        <v>1325.098153446585</v>
       </c>
       <c r="AC7" t="n">
-        <v>1105.082653575574</v>
+        <v>1198.632645468581</v>
       </c>
       <c r="AD7" t="n">
-        <v>892880.0499027902</v>
+        <v>968466.180188674</v>
       </c>
       <c r="AE7" t="n">
-        <v>1221677.875364716</v>
+        <v>1325098.153446585</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.972917013882619e-06</v>
+        <v>2.888276289252004e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.93541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1105082.653575574</v>
+        <v>1198632.645468581</v>
       </c>
     </row>
     <row r="8">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>858.3411905731124</v>
+        <v>925.6805790131365</v>
       </c>
       <c r="AB8" t="n">
-        <v>1174.420284282918</v>
+        <v>1266.557006350708</v>
       </c>
       <c r="AC8" t="n">
-        <v>1062.335260660177</v>
+        <v>1145.678583288519</v>
       </c>
       <c r="AD8" t="n">
-        <v>858341.1905731123</v>
+        <v>925680.5790131364</v>
       </c>
       <c r="AE8" t="n">
-        <v>1174420.284282918</v>
+        <v>1266557.006350708</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.006118401708992e-06</v>
+        <v>2.936881872028371e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.67291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1062335.260660177</v>
+        <v>1145678.583288519</v>
       </c>
     </row>
     <row r="9">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>828.1613346076848</v>
+        <v>895.3301308471169</v>
       </c>
       <c r="AB9" t="n">
-        <v>1133.126873909744</v>
+        <v>1225.030184202687</v>
       </c>
       <c r="AC9" t="n">
-        <v>1024.982835417353</v>
+        <v>1108.115022763044</v>
       </c>
       <c r="AD9" t="n">
-        <v>828161.3346076848</v>
+        <v>895330.1308471169</v>
       </c>
       <c r="AE9" t="n">
-        <v>1133126.873909744</v>
+        <v>1225030.184202687</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.031774019574826e-06</v>
+        <v>2.974440731446473e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.475</v>
       </c>
       <c r="AH9" t="n">
-        <v>1024982.835417353</v>
+        <v>1108115.022763044</v>
       </c>
     </row>
     <row r="10">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>799.7417925583427</v>
+        <v>866.9105887977746</v>
       </c>
       <c r="AB10" t="n">
-        <v>1094.242002696126</v>
+        <v>1186.145312989069</v>
       </c>
       <c r="AC10" t="n">
-        <v>989.8090817371033</v>
+        <v>1072.941269082794</v>
       </c>
       <c r="AD10" t="n">
-        <v>799741.7925583427</v>
+        <v>866910.5887977746</v>
       </c>
       <c r="AE10" t="n">
-        <v>1094242.002696126</v>
+        <v>1186145.312989069</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.053053090863547e-06</v>
+        <v>3.00559249131678e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.31458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>989809.0817371033</v>
+        <v>1072941.269082794</v>
       </c>
     </row>
     <row r="11">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>780.9411169716594</v>
+        <v>848.1099132110916</v>
       </c>
       <c r="AB11" t="n">
-        <v>1068.518088931157</v>
+        <v>1160.4213992241</v>
       </c>
       <c r="AC11" t="n">
-        <v>966.5402221981235</v>
+        <v>1049.672409543814</v>
       </c>
       <c r="AD11" t="n">
-        <v>780941.1169716595</v>
+        <v>848109.9132110915</v>
       </c>
       <c r="AE11" t="n">
-        <v>1068518.088931157</v>
+        <v>1160421.3992241</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.066182730594885e-06</v>
+        <v>3.024813789960161e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.21666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>966540.2221981235</v>
+        <v>1049672.409543814</v>
       </c>
     </row>
     <row r="12">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>779.8880193677412</v>
+        <v>847.0568156071731</v>
       </c>
       <c r="AB12" t="n">
-        <v>1067.077194330089</v>
+        <v>1158.980504623032</v>
       </c>
       <c r="AC12" t="n">
-        <v>965.2368445554728</v>
+        <v>1048.369031901164</v>
       </c>
       <c r="AD12" t="n">
-        <v>779888.0193677412</v>
+        <v>847056.8156071731</v>
       </c>
       <c r="AE12" t="n">
-        <v>1067077.194330089</v>
+        <v>1158980.504623032</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.067993715385415e-06</v>
+        <v>3.027465003566145e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.20416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>965236.8445554727</v>
+        <v>1048369.031901164</v>
       </c>
     </row>
     <row r="13">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>783.0105497703651</v>
+        <v>850.1793460097972</v>
       </c>
       <c r="AB13" t="n">
-        <v>1071.349578183278</v>
+        <v>1163.252888476221</v>
       </c>
       <c r="AC13" t="n">
-        <v>969.101478090042</v>
+        <v>1052.233665435733</v>
       </c>
       <c r="AD13" t="n">
-        <v>783010.549770365</v>
+        <v>850179.3460097972</v>
       </c>
       <c r="AE13" t="n">
-        <v>1071349.578183278</v>
+        <v>1163252.888476221</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.067842799986204e-06</v>
+        <v>3.02724406909898e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.20416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>969101.4780900419</v>
+        <v>1052233.665435733</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1060.38980615806</v>
+        <v>1138.06278300901</v>
       </c>
       <c r="AB2" t="n">
-        <v>1450.872113882062</v>
+        <v>1557.147707499426</v>
       </c>
       <c r="AC2" t="n">
-        <v>1312.402915644958</v>
+        <v>1408.535715766214</v>
       </c>
       <c r="AD2" t="n">
-        <v>1060389.80615806</v>
+        <v>1138062.78300901</v>
       </c>
       <c r="AE2" t="n">
-        <v>1450872.113882062</v>
+        <v>1557147.707499426</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.669176840333535e-06</v>
+        <v>2.582422603359158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.01875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1312402.915644958</v>
+        <v>1408535.715766214</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>697.6665499849238</v>
+        <v>767.4868077385107</v>
       </c>
       <c r="AB3" t="n">
-        <v>954.5781525652947</v>
+        <v>1050.109309476131</v>
       </c>
       <c r="AC3" t="n">
-        <v>863.4745534433138</v>
+        <v>949.8883508174009</v>
       </c>
       <c r="AD3" t="n">
-        <v>697666.5499849238</v>
+        <v>767486.8077385108</v>
       </c>
       <c r="AE3" t="n">
-        <v>954578.1525652946</v>
+        <v>1050109.309476131</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.083776656808632e-06</v>
+        <v>3.223859694710071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.83541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>863474.5534433138</v>
+        <v>949888.350817401</v>
       </c>
     </row>
     <row r="4">
@@ -8139,28 +8139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>603.2609417826714</v>
+        <v>665.3992516565902</v>
       </c>
       <c r="AB4" t="n">
-        <v>825.4082345414819</v>
+        <v>910.4286114597344</v>
       </c>
       <c r="AC4" t="n">
-        <v>746.6324311045752</v>
+        <v>823.5385825765981</v>
       </c>
       <c r="AD4" t="n">
-        <v>603260.9417826714</v>
+        <v>665399.2516565901</v>
       </c>
       <c r="AE4" t="n">
-        <v>825408.2345414818</v>
+        <v>910428.6114597344</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.215633544014157e-06</v>
+        <v>3.427858574696978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>746632.4311045752</v>
+        <v>823538.582576598</v>
       </c>
     </row>
     <row r="5">
@@ -8245,28 +8245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>599.8567981559314</v>
+        <v>661.9951080298503</v>
       </c>
       <c r="AB5" t="n">
-        <v>820.7505350511585</v>
+        <v>905.7709119694114</v>
       </c>
       <c r="AC5" t="n">
-        <v>742.4192559164861</v>
+        <v>819.3254073885092</v>
       </c>
       <c r="AD5" t="n">
-        <v>599856.7981559314</v>
+        <v>661995.1080298503</v>
       </c>
       <c r="AE5" t="n">
-        <v>820750.5350511585</v>
+        <v>905770.9119694114</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.224053524040052e-06</v>
+        <v>3.440885323099718e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.775</v>
       </c>
       <c r="AH5" t="n">
-        <v>742419.2559164861</v>
+        <v>819325.4073885093</v>
       </c>
     </row>
   </sheetData>
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1567.383263736867</v>
+        <v>1663.555598531781</v>
       </c>
       <c r="AB2" t="n">
-        <v>2144.562929514152</v>
+        <v>2276.150160804521</v>
       </c>
       <c r="AC2" t="n">
-        <v>1939.888853434296</v>
+        <v>2058.917584054152</v>
       </c>
       <c r="AD2" t="n">
-        <v>1567383.263736867</v>
+        <v>1663555.598531781</v>
       </c>
       <c r="AE2" t="n">
-        <v>2144562.929514152</v>
+        <v>2276150.160804521</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.381615503921726e-06</v>
+        <v>2.088027177779307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.29375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1939888.853434296</v>
+        <v>2058917.584054152</v>
       </c>
     </row>
     <row r="3">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>922.5767950371762</v>
+        <v>1002.620768445479</v>
       </c>
       <c r="AB3" t="n">
-        <v>1262.310272185514</v>
+        <v>1371.829967893635</v>
       </c>
       <c r="AC3" t="n">
-        <v>1141.837151471722</v>
+        <v>1240.904441133318</v>
       </c>
       <c r="AD3" t="n">
-        <v>922576.7950371762</v>
+        <v>1002620.768445479</v>
       </c>
       <c r="AE3" t="n">
-        <v>1262310.272185514</v>
+        <v>1371829.967893635</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.865406473870064e-06</v>
+        <v>2.819177552647691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.99166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1141837.151471722</v>
+        <v>1240904.441133318</v>
       </c>
     </row>
     <row r="4">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>784.8569683927675</v>
+        <v>856.9648171438971</v>
       </c>
       <c r="AB4" t="n">
-        <v>1073.875929600689</v>
+        <v>1172.537069435756</v>
       </c>
       <c r="AC4" t="n">
-        <v>971.386718073932</v>
+        <v>1060.631777194919</v>
       </c>
       <c r="AD4" t="n">
-        <v>784856.9683927675</v>
+        <v>856964.8171438971</v>
       </c>
       <c r="AE4" t="n">
-        <v>1073875.929600689</v>
+        <v>1172537.069435756</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.032953130129228e-06</v>
+        <v>3.072389803684361e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.50833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>971386.718073932</v>
+        <v>1060631.777194919</v>
       </c>
     </row>
     <row r="5">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>706.9693356597041</v>
+        <v>771.1410597536608</v>
       </c>
       <c r="AB5" t="n">
-        <v>967.3066343354679</v>
+        <v>1055.109218297481</v>
       </c>
       <c r="AC5" t="n">
-        <v>874.9882467778781</v>
+        <v>954.4110753582569</v>
       </c>
       <c r="AD5" t="n">
-        <v>706969.3356597042</v>
+        <v>771141.0597536608</v>
       </c>
       <c r="AE5" t="n">
-        <v>967306.6343354679</v>
+        <v>1055109.218297481</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.121559534881671e-06</v>
+        <v>3.20630012875183e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.81875</v>
       </c>
       <c r="AH5" t="n">
-        <v>874988.2467778781</v>
+        <v>954411.0753582569</v>
       </c>
     </row>
     <row r="6">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>666.1705631463385</v>
+        <v>730.1716950397031</v>
       </c>
       <c r="AB6" t="n">
-        <v>911.4839538678693</v>
+        <v>999.0531260550349</v>
       </c>
       <c r="AC6" t="n">
-        <v>824.4932045864832</v>
+        <v>903.7048978842106</v>
       </c>
       <c r="AD6" t="n">
-        <v>666170.5631463386</v>
+        <v>730171.695039703</v>
       </c>
       <c r="AE6" t="n">
-        <v>911483.9538678693</v>
+        <v>999053.1260550349</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.167473762798846e-06</v>
+        <v>3.27569002446861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.48333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>824493.2045864832</v>
+        <v>903704.8978842106</v>
       </c>
     </row>
     <row r="7">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>662.6365064966043</v>
+        <v>726.6376383899687</v>
       </c>
       <c r="AB7" t="n">
-        <v>906.6485016481274</v>
+        <v>994.2176738352929</v>
       </c>
       <c r="AC7" t="n">
-        <v>820.1192411399935</v>
+        <v>899.330934437721</v>
       </c>
       <c r="AD7" t="n">
-        <v>662636.5064966043</v>
+        <v>726637.6383899688</v>
       </c>
       <c r="AE7" t="n">
-        <v>906648.5016481275</v>
+        <v>994217.6738352929</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.173595659854469e-06</v>
+        <v>3.284942010564181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.44166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>820119.2411399935</v>
+        <v>899330.934437721</v>
       </c>
     </row>
   </sheetData>
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>759.7744254105027</v>
+        <v>835.2772009273424</v>
       </c>
       <c r="AB2" t="n">
-        <v>1039.556887728655</v>
+        <v>1142.863116138165</v>
       </c>
       <c r="AC2" t="n">
-        <v>940.3430373910871</v>
+        <v>1033.789864352396</v>
       </c>
       <c r="AD2" t="n">
-        <v>759774.4254105027</v>
+        <v>835277.2009273424</v>
       </c>
       <c r="AE2" t="n">
-        <v>1039556.887728655</v>
+        <v>1142863.116138165</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.919671169956871e-06</v>
+        <v>3.034017229523632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.98125</v>
       </c>
       <c r="AH2" t="n">
-        <v>940343.0373910872</v>
+        <v>1033789.864352396</v>
       </c>
     </row>
     <row r="3">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.2036298700269</v>
+        <v>617.5888716211355</v>
       </c>
       <c r="AB3" t="n">
-        <v>762.3905884774047</v>
+        <v>845.0123402501212</v>
       </c>
       <c r="AC3" t="n">
-        <v>689.6291007350319</v>
+        <v>764.3655484789172</v>
       </c>
       <c r="AD3" t="n">
-        <v>557203.629870027</v>
+        <v>617588.8716211355</v>
       </c>
       <c r="AE3" t="n">
-        <v>762390.5884774047</v>
+        <v>845012.3402501212</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243405803301457e-06</v>
+        <v>3.545675929582693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.24166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>689629.1007350319</v>
+        <v>764365.5484789172</v>
       </c>
     </row>
     <row r="4">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>559.0670779365732</v>
+        <v>619.452319687682</v>
       </c>
       <c r="AB4" t="n">
-        <v>764.9402403315801</v>
+        <v>847.5619921042966</v>
       </c>
       <c r="AC4" t="n">
-        <v>691.9354173947034</v>
+        <v>766.6718651385888</v>
       </c>
       <c r="AD4" t="n">
-        <v>559067.0779365732</v>
+        <v>619452.319687682</v>
       </c>
       <c r="AE4" t="n">
-        <v>764940.24033158</v>
+        <v>847561.9921042966</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.246903746395402e-06</v>
+        <v>3.551204386633574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.21666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>691935.4173947035</v>
+        <v>766671.8651385888</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3558.109506678602</v>
+        <v>3710.559453567957</v>
       </c>
       <c r="AB2" t="n">
-        <v>4868.362399750798</v>
+        <v>5076.951142701811</v>
       </c>
       <c r="AC2" t="n">
-        <v>4403.73272510794</v>
+        <v>4592.41405118784</v>
       </c>
       <c r="AD2" t="n">
-        <v>3558109.506678602</v>
+        <v>3710559.453567957</v>
       </c>
       <c r="AE2" t="n">
-        <v>4868362.399750798</v>
+        <v>5076951.142701811</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.934698688845554e-07</v>
+        <v>1.302577471399652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.87291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4403732.72510794</v>
+        <v>4592414.05118784</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1486.348700880033</v>
+        <v>1579.479369202305</v>
       </c>
       <c r="AB3" t="n">
-        <v>2033.687865620829</v>
+        <v>2161.113354654475</v>
       </c>
       <c r="AC3" t="n">
-        <v>1839.595550024822</v>
+        <v>1954.859729227894</v>
       </c>
       <c r="AD3" t="n">
-        <v>1486348.700880033</v>
+        <v>1579479.369202305</v>
       </c>
       <c r="AE3" t="n">
-        <v>2033687.865620829</v>
+        <v>2161113.354654475</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.491409697441712e-06</v>
+        <v>2.174305749045419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.89166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1839595.550024822</v>
+        <v>1954859.729227894</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1189.821766304465</v>
+        <v>1266.004158830408</v>
       </c>
       <c r="AB4" t="n">
-        <v>1627.966631889454</v>
+        <v>1732.202742273404</v>
       </c>
       <c r="AC4" t="n">
-        <v>1472.595781407442</v>
+        <v>1566.883743712648</v>
       </c>
       <c r="AD4" t="n">
-        <v>1189821.766304465</v>
+        <v>1266004.158830408</v>
       </c>
       <c r="AE4" t="n">
-        <v>1627966.631889454</v>
+        <v>1732202.742273404</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.707822636891988e-06</v>
+        <v>2.489811206212358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.24375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1472595.781407442</v>
+        <v>1566883.743712648</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1063.305882829442</v>
+        <v>1131.099433557516</v>
       </c>
       <c r="AB5" t="n">
-        <v>1454.86201863207</v>
+        <v>1547.620145578595</v>
       </c>
       <c r="AC5" t="n">
-        <v>1316.012029485492</v>
+        <v>1399.91745098309</v>
       </c>
       <c r="AD5" t="n">
-        <v>1063305.882829442</v>
+        <v>1131099.433557516</v>
       </c>
       <c r="AE5" t="n">
-        <v>1454862.01863207</v>
+        <v>1547620.145578595</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.823133194124997e-06</v>
+        <v>2.657920886568758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.08958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1316012.029485492</v>
+        <v>1399917.45098309</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>987.5558339854621</v>
+        <v>1055.264043858964</v>
       </c>
       <c r="AB6" t="n">
-        <v>1351.217459947438</v>
+        <v>1443.858819771766</v>
       </c>
       <c r="AC6" t="n">
-        <v>1222.25916201567</v>
+        <v>1306.058960481329</v>
       </c>
       <c r="AD6" t="n">
-        <v>987555.8339854621</v>
+        <v>1055264.043858964</v>
       </c>
       <c r="AE6" t="n">
-        <v>1351217.459947438</v>
+        <v>1443858.819771766</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.893276710781652e-06</v>
+        <v>2.760182157758319e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.45625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1222259.16201567</v>
+        <v>1306058.960481329</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>942.2692643099856</v>
+        <v>1009.977474183488</v>
       </c>
       <c r="AB7" t="n">
-        <v>1289.254377415002</v>
+        <v>1381.89573723933</v>
       </c>
       <c r="AC7" t="n">
-        <v>1166.209749114397</v>
+        <v>1250.009547580056</v>
       </c>
       <c r="AD7" t="n">
-        <v>942269.2643099856</v>
+        <v>1009977.474183488</v>
       </c>
       <c r="AE7" t="n">
-        <v>1289254.377415002</v>
+        <v>1381895.73723933</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.939789788991075e-06</v>
+        <v>2.827992936734765e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1166209.749114397</v>
+        <v>1250009.547580056</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>898.1217590009923</v>
+        <v>965.9152202205148</v>
       </c>
       <c r="AB8" t="n">
-        <v>1228.849813000761</v>
+        <v>1321.607817477739</v>
       </c>
       <c r="AC8" t="n">
-        <v>1111.570111549512</v>
+        <v>1195.475422265884</v>
       </c>
       <c r="AD8" t="n">
-        <v>898121.7590009923</v>
+        <v>965915.2202205148</v>
       </c>
       <c r="AE8" t="n">
-        <v>1228849.813000761</v>
+        <v>1321607.817477738</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.97538500639893e-06</v>
+        <v>2.879886716144393e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.77291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1111570.111549512</v>
+        <v>1195475.422265884</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>867.7609960033981</v>
+        <v>935.5544572229209</v>
       </c>
       <c r="AB9" t="n">
-        <v>1187.308877645121</v>
+        <v>1280.066882122098</v>
       </c>
       <c r="AC9" t="n">
-        <v>1073.993784761146</v>
+        <v>1157.899095477517</v>
       </c>
       <c r="AD9" t="n">
-        <v>867760.9960033981</v>
+        <v>935554.4572229208</v>
       </c>
       <c r="AE9" t="n">
-        <v>1187308.877645121</v>
+        <v>1280066.882122098</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.000660601953247e-06</v>
+        <v>2.916735660347028e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1073993.784761146</v>
+        <v>1157899.095477517</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>842.4953677110038</v>
+        <v>910.1182367299342</v>
       </c>
       <c r="AB10" t="n">
-        <v>1152.739330374614</v>
+        <v>1245.263923076745</v>
       </c>
       <c r="AC10" t="n">
-        <v>1042.723506563472</v>
+        <v>1126.417681997192</v>
       </c>
       <c r="AD10" t="n">
-        <v>842495.3677110039</v>
+        <v>910118.2367299342</v>
       </c>
       <c r="AE10" t="n">
-        <v>1152739.330374614</v>
+        <v>1245263.923076745</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.0227954430304e-06</v>
+        <v>2.949005741660579e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.40416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1042723.506563472</v>
+        <v>1126417.681997192</v>
       </c>
     </row>
     <row r="11">
@@ -10832,28 +10832,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>817.3370879717567</v>
+        <v>884.959956990687</v>
       </c>
       <c r="AB11" t="n">
-        <v>1118.316662130408</v>
+        <v>1210.841254832538</v>
       </c>
       <c r="AC11" t="n">
-        <v>1011.586089463974</v>
+        <v>1095.280264897694</v>
       </c>
       <c r="AD11" t="n">
-        <v>817337.0879717567</v>
+        <v>884959.9569906871</v>
       </c>
       <c r="AE11" t="n">
-        <v>1118316.662130408</v>
+        <v>1210841.254832538</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.039845253049289e-06</v>
+        <v>2.97386242591561e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.275</v>
       </c>
       <c r="AH11" t="n">
-        <v>1011586.089463974</v>
+        <v>1095280.264897694</v>
       </c>
     </row>
     <row r="12">
@@ -10938,28 +10938,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>800.389222844497</v>
+        <v>868.0120918634273</v>
       </c>
       <c r="AB12" t="n">
-        <v>1095.12784537625</v>
+        <v>1187.652438078381</v>
       </c>
       <c r="AC12" t="n">
-        <v>990.6103808351247</v>
+        <v>1074.304556268845</v>
       </c>
       <c r="AD12" t="n">
-        <v>800389.222844497</v>
+        <v>868012.0918634273</v>
       </c>
       <c r="AE12" t="n">
-        <v>1095127.84537625</v>
+        <v>1187652.438078381</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.050912673587865e-06</v>
+        <v>2.989997466572385e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.19166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>990610.3808351248</v>
+        <v>1074304.556268845</v>
       </c>
     </row>
     <row r="13">
@@ -11044,28 +11044,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>799.9895516161436</v>
+        <v>859.3089196917766</v>
       </c>
       <c r="AB13" t="n">
-        <v>1094.580997569367</v>
+        <v>1175.74437395627</v>
       </c>
       <c r="AC13" t="n">
-        <v>990.1157234154246</v>
+        <v>1063.532981073476</v>
       </c>
       <c r="AD13" t="n">
-        <v>799989.5516161436</v>
+        <v>859308.9196917766</v>
       </c>
       <c r="AE13" t="n">
-        <v>1094580.997569367</v>
+        <v>1175744.373956271</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.053006509905974e-06</v>
+        <v>2.993050041831775e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.17708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>990115.7234154246</v>
+        <v>1063532.981073476</v>
       </c>
     </row>
     <row r="14">
@@ -11150,28 +11150,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>803.2234182770193</v>
+        <v>870.8462872959495</v>
       </c>
       <c r="AB14" t="n">
-        <v>1099.005716602906</v>
+        <v>1191.530309305035</v>
       </c>
       <c r="AC14" t="n">
-        <v>994.1181534745343</v>
+        <v>1077.812328908255</v>
       </c>
       <c r="AD14" t="n">
-        <v>803223.4182770193</v>
+        <v>870846.2872959495</v>
       </c>
       <c r="AE14" t="n">
-        <v>1099005.716602905</v>
+        <v>1191530.309305036</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.052408270957944e-06</v>
+        <v>2.99217787747195e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.18125</v>
       </c>
       <c r="AH14" t="n">
-        <v>994118.1534745343</v>
+        <v>1077812.328908255</v>
       </c>
     </row>
   </sheetData>
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>616.2541427567763</v>
+        <v>690.4370808580709</v>
       </c>
       <c r="AB2" t="n">
-        <v>843.1861053338232</v>
+        <v>944.6864739642666</v>
       </c>
       <c r="AC2" t="n">
-        <v>762.7136068598937</v>
+        <v>854.5269227649098</v>
       </c>
       <c r="AD2" t="n">
-        <v>616254.1427567763</v>
+        <v>690437.0808580709</v>
       </c>
       <c r="AE2" t="n">
-        <v>843186.1053338232</v>
+        <v>944686.4739642666</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.079823900133195e-06</v>
+        <v>3.332366433818111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.92916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>762713.6068598938</v>
+        <v>854526.9227649098</v>
       </c>
     </row>
     <row r="3">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>530.2033211438344</v>
+        <v>597.0362381186569</v>
       </c>
       <c r="AB3" t="n">
-        <v>725.4475749086756</v>
+        <v>816.891320373833</v>
       </c>
       <c r="AC3" t="n">
-        <v>656.2118765314571</v>
+        <v>738.9283592715225</v>
       </c>
       <c r="AD3" t="n">
-        <v>530203.3211438344</v>
+        <v>597036.2381186569</v>
       </c>
       <c r="AE3" t="n">
-        <v>725447.5749086756</v>
+        <v>816891.3203738329</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.242880662011108e-06</v>
+        <v>3.593621668001269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>656211.8765314571</v>
+        <v>738928.3592715225</v>
       </c>
     </row>
   </sheetData>
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2235.108703127349</v>
+        <v>2350.288431288948</v>
       </c>
       <c r="AB2" t="n">
-        <v>3058.17433365573</v>
+        <v>3215.768319097421</v>
       </c>
       <c r="AC2" t="n">
-        <v>2766.306467426146</v>
+        <v>2908.859904081825</v>
       </c>
       <c r="AD2" t="n">
-        <v>2235108.703127349</v>
+        <v>2350288.431288948</v>
       </c>
       <c r="AE2" t="n">
-        <v>3058174.33365573</v>
+        <v>3215768.319097421</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.150001271547412e-06</v>
+        <v>1.707571564747417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2766306.467426146</v>
+        <v>2908859.904081825</v>
       </c>
     </row>
     <row r="3">
@@ -11956,28 +11956,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1158.792084811089</v>
+        <v>1240.953620830226</v>
       </c>
       <c r="AB3" t="n">
-        <v>1585.510452737284</v>
+        <v>1697.927491029817</v>
       </c>
       <c r="AC3" t="n">
-        <v>1434.191560405933</v>
+        <v>1535.879674342131</v>
       </c>
       <c r="AD3" t="n">
-        <v>1158792.084811089</v>
+        <v>1240953.620830226</v>
       </c>
       <c r="AE3" t="n">
-        <v>1585510.452737284</v>
+        <v>1697927.491029817</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.688306355660059e-06</v>
+        <v>2.50687020687229e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1434191.560405933</v>
+        <v>1535879.674342131</v>
       </c>
     </row>
     <row r="4">
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>959.2386307361008</v>
+        <v>1033.166953933265</v>
       </c>
       <c r="AB4" t="n">
-        <v>1312.472613194823</v>
+        <v>1413.624606480618</v>
       </c>
       <c r="AC4" t="n">
-        <v>1187.212069058391</v>
+        <v>1278.710258072704</v>
       </c>
       <c r="AD4" t="n">
-        <v>959238.6307361008</v>
+        <v>1033166.953933265</v>
       </c>
       <c r="AE4" t="n">
-        <v>1312472.613194823</v>
+        <v>1413624.606480618</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.878936636746744e-06</v>
+        <v>2.789926282910734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.23958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1187212.069058391</v>
+        <v>1278710.258072704</v>
       </c>
     </row>
     <row r="5">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>865.4552846682636</v>
+        <v>931.2357358980262</v>
       </c>
       <c r="AB5" t="n">
-        <v>1184.154101675585</v>
+        <v>1274.15781707684</v>
       </c>
       <c r="AC5" t="n">
-        <v>1071.140096182386</v>
+        <v>1152.553983306753</v>
       </c>
       <c r="AD5" t="n">
-        <v>865455.2846682636</v>
+        <v>931235.7358980261</v>
       </c>
       <c r="AE5" t="n">
-        <v>1184154.101675585</v>
+        <v>1274157.81707684</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.979071955686243e-06</v>
+        <v>2.938611530030439e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.36875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1071140.096182386</v>
+        <v>1152553.983306753</v>
       </c>
     </row>
     <row r="6">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>805.5216002003868</v>
+        <v>879.4498338889999</v>
       </c>
       <c r="AB6" t="n">
-        <v>1102.150190499088</v>
+        <v>1203.302061315334</v>
       </c>
       <c r="AC6" t="n">
-        <v>996.9625231953619</v>
+        <v>1088.460601428448</v>
       </c>
       <c r="AD6" t="n">
-        <v>805521.6002003868</v>
+        <v>879449.8338889999</v>
       </c>
       <c r="AE6" t="n">
-        <v>1102150.190499088</v>
+        <v>1203302.061315334</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.038779971948305e-06</v>
+        <v>3.027268571791256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.8875</v>
       </c>
       <c r="AH6" t="n">
-        <v>996962.5231953618</v>
+        <v>1088460.601428448</v>
       </c>
     </row>
     <row r="7">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>763.369467239895</v>
+        <v>829.2351698156783</v>
       </c>
       <c r="AB7" t="n">
-        <v>1044.475782561682</v>
+        <v>1134.596142615586</v>
       </c>
       <c r="AC7" t="n">
-        <v>944.7924798049623</v>
+        <v>1026.311879180041</v>
       </c>
       <c r="AD7" t="n">
-        <v>763369.467239895</v>
+        <v>829235.1698156783</v>
       </c>
       <c r="AE7" t="n">
-        <v>1044475.782561682</v>
+        <v>1134596.142615586</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.082161577513709e-06</v>
+        <v>3.091683453695601e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.55833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>944792.4798049623</v>
+        <v>1026311.879180041</v>
       </c>
     </row>
     <row r="8">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>731.5881113706454</v>
+        <v>797.2832217458364</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000.991129366909</v>
+        <v>1090.878077645966</v>
       </c>
       <c r="AC8" t="n">
-        <v>905.457940880004</v>
+        <v>986.7662049724319</v>
       </c>
       <c r="AD8" t="n">
-        <v>731588.1113706453</v>
+        <v>797283.2217458364</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000991.129366909</v>
+        <v>1090878.077645966</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.11014971013655e-06</v>
+        <v>3.133241442020984e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.35208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>905457.940880004</v>
+        <v>986766.2049724319</v>
       </c>
     </row>
     <row r="9">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>723.0920040992581</v>
+        <v>788.7871144744491</v>
       </c>
       <c r="AB9" t="n">
-        <v>989.3663805763978</v>
+        <v>1079.253328855455</v>
       </c>
       <c r="AC9" t="n">
-        <v>894.9426417986218</v>
+        <v>976.2509058910498</v>
       </c>
       <c r="AD9" t="n">
-        <v>723092.0040992581</v>
+        <v>788787.1144744492</v>
       </c>
       <c r="AE9" t="n">
-        <v>989366.3805763978</v>
+        <v>1079253.328855455</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.118857129174767e-06</v>
+        <v>3.146170593944437e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.2875</v>
       </c>
       <c r="AH9" t="n">
-        <v>894942.6417986219</v>
+        <v>976250.9058910498</v>
       </c>
     </row>
     <row r="10">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>725.5532238143287</v>
+        <v>791.2483341895196</v>
       </c>
       <c r="AB10" t="n">
-        <v>992.7339299719075</v>
+        <v>1082.620878250964</v>
       </c>
       <c r="AC10" t="n">
-        <v>897.9887970062096</v>
+        <v>979.2970610986373</v>
       </c>
       <c r="AD10" t="n">
-        <v>725553.2238143287</v>
+        <v>791248.3341895196</v>
       </c>
       <c r="AE10" t="n">
-        <v>992733.9299719075</v>
+        <v>1082620.878250964</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.118546149923402e-06</v>
+        <v>3.1457088385186e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.28958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>897988.7970062095</v>
+        <v>979297.0610986373</v>
       </c>
     </row>
   </sheetData>
@@ -12995,28 +12995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2814.988959372362</v>
+        <v>2948.554465118117</v>
       </c>
       <c r="AB2" t="n">
-        <v>3851.592082761586</v>
+        <v>4034.34230021718</v>
       </c>
       <c r="AC2" t="n">
-        <v>3484.001540126114</v>
+        <v>3649.310333319281</v>
       </c>
       <c r="AD2" t="n">
-        <v>2814988.959372362</v>
+        <v>2948554.465118117</v>
       </c>
       <c r="AE2" t="n">
-        <v>3851592.082761586</v>
+        <v>4034342.300217181</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.016014514549356e-06</v>
+        <v>1.493990901618264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3484001.540126114</v>
+        <v>3649310.333319281</v>
       </c>
     </row>
     <row r="3">
@@ -13101,28 +13101,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1320.93648079999</v>
+        <v>1404.436290670436</v>
       </c>
       <c r="AB3" t="n">
-        <v>1807.363568635193</v>
+        <v>1921.611692251563</v>
       </c>
       <c r="AC3" t="n">
-        <v>1634.87132629535</v>
+        <v>1738.215769342022</v>
       </c>
       <c r="AD3" t="n">
-        <v>1320936.48079999</v>
+        <v>1404436.290670436</v>
       </c>
       <c r="AE3" t="n">
-        <v>1807363.568635193</v>
+        <v>1921611.692251563</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.586103930270406e-06</v>
+        <v>2.33227459540377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.0125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1634871.32629535</v>
+        <v>1738215.769342022</v>
       </c>
     </row>
     <row r="4">
@@ -13207,28 +13207,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1068.499073265972</v>
+        <v>1143.725628360793</v>
       </c>
       <c r="AB4" t="n">
-        <v>1461.967570894723</v>
+        <v>1564.89586233684</v>
       </c>
       <c r="AC4" t="n">
-        <v>1322.439437812903</v>
+        <v>1415.544397580549</v>
       </c>
       <c r="AD4" t="n">
-        <v>1068499.073265972</v>
+        <v>1143725.628360793</v>
       </c>
       <c r="AE4" t="n">
-        <v>1461967.570894723</v>
+        <v>1564895.86233684</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.790708442647042e-06</v>
+        <v>2.633133761826522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.72291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1322439.437812903</v>
+        <v>1415544.397580549</v>
       </c>
     </row>
     <row r="5">
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>960.4543592444165</v>
+        <v>1035.595573484665</v>
       </c>
       <c r="AB5" t="n">
-        <v>1314.136026574057</v>
+        <v>1416.947550893977</v>
       </c>
       <c r="AC5" t="n">
-        <v>1188.716728599326</v>
+        <v>1281.716065335033</v>
       </c>
       <c r="AD5" t="n">
-        <v>960454.3592444166</v>
+        <v>1035595.573484665</v>
       </c>
       <c r="AE5" t="n">
-        <v>1314136.026574057</v>
+        <v>1416947.550893977</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.898114385480645e-06</v>
+        <v>2.791068022681354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.72291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1188716.728599326</v>
+        <v>1281716.065335033</v>
       </c>
     </row>
     <row r="6">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>902.2155270173411</v>
+        <v>968.9983246444942</v>
       </c>
       <c r="AB6" t="n">
-        <v>1234.451087005028</v>
+        <v>1325.826256967595</v>
       </c>
       <c r="AC6" t="n">
-        <v>1116.63680782425</v>
+        <v>1199.291259811445</v>
       </c>
       <c r="AD6" t="n">
-        <v>902215.5270173411</v>
+        <v>968998.3246444942</v>
       </c>
       <c r="AE6" t="n">
-        <v>1234451.087005028</v>
+        <v>1325826.256967595</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.961948555760474e-06</v>
+        <v>2.884932498281603e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.17708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1116636.80782425</v>
+        <v>1199291.259811445</v>
       </c>
     </row>
     <row r="7">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>851.0823872340158</v>
+        <v>917.9504362071893</v>
       </c>
       <c r="AB7" t="n">
-        <v>1164.488469318564</v>
+        <v>1255.98028393378</v>
       </c>
       <c r="AC7" t="n">
-        <v>1053.351324176631</v>
+        <v>1136.111288414539</v>
       </c>
       <c r="AD7" t="n">
-        <v>851082.3872340157</v>
+        <v>917950.4362071893</v>
       </c>
       <c r="AE7" t="n">
-        <v>1164488.469318564</v>
+        <v>1255980.28393378</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.007348514575245e-06</v>
+        <v>2.951690526274142e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1053351.324176631</v>
+        <v>1136111.288414539</v>
       </c>
     </row>
     <row r="8">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>815.2710984354479</v>
+        <v>882.1391474086215</v>
       </c>
       <c r="AB8" t="n">
-        <v>1115.489884101804</v>
+        <v>1206.98169871702</v>
       </c>
       <c r="AC8" t="n">
-        <v>1009.029095163013</v>
+        <v>1091.78905940092</v>
       </c>
       <c r="AD8" t="n">
-        <v>815271.0984354479</v>
+        <v>882139.1474086215</v>
       </c>
       <c r="AE8" t="n">
-        <v>1115489.884101804</v>
+        <v>1206981.69871702</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.040560564983366e-06</v>
+        <v>3.000526936013649e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.55416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1009029.095163013</v>
+        <v>1091789.059400921</v>
       </c>
     </row>
     <row r="9">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>785.080819534832</v>
+        <v>851.7782763074135</v>
       </c>
       <c r="AB9" t="n">
-        <v>1074.182212608878</v>
+        <v>1165.440615449246</v>
       </c>
       <c r="AC9" t="n">
-        <v>971.6637698616897</v>
+        <v>1054.212598816946</v>
       </c>
       <c r="AD9" t="n">
-        <v>785080.819534832</v>
+        <v>851778.2763074136</v>
       </c>
       <c r="AE9" t="n">
-        <v>1074182.212608878</v>
+        <v>1165440.615449246</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.066155172637331e-06</v>
+        <v>3.038162334345014e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.3625</v>
       </c>
       <c r="AH9" t="n">
-        <v>971663.7698616898</v>
+        <v>1054212.598816946</v>
       </c>
     </row>
     <row r="10">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>764.7061763050898</v>
+        <v>831.4036330776713</v>
       </c>
       <c r="AB10" t="n">
-        <v>1046.304726876124</v>
+        <v>1137.563129716492</v>
       </c>
       <c r="AC10" t="n">
-        <v>946.4468722409731</v>
+        <v>1028.99570119623</v>
       </c>
       <c r="AD10" t="n">
-        <v>764706.1763050898</v>
+        <v>831403.6330776713</v>
       </c>
       <c r="AE10" t="n">
-        <v>1046304.726876124</v>
+        <v>1137563.129716492</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.080171267304978e-06</v>
+        <v>3.058772195335999e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.25833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>946446.8722409731</v>
+        <v>1028995.70119623</v>
       </c>
     </row>
     <row r="11">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>761.1869044268705</v>
+        <v>827.8843611994517</v>
       </c>
       <c r="AB11" t="n">
-        <v>1041.489503833026</v>
+        <v>1132.747906673395</v>
       </c>
       <c r="AC11" t="n">
-        <v>942.0912073269006</v>
+        <v>1024.640036282157</v>
       </c>
       <c r="AD11" t="n">
-        <v>761186.9044268704</v>
+        <v>827884.3611994517</v>
       </c>
       <c r="AE11" t="n">
-        <v>1041489.503833026</v>
+        <v>1132747.906673395</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.084437035247306e-06</v>
+        <v>3.06504476172456e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.22708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>942091.2073269007</v>
+        <v>1024640.036282157</v>
       </c>
     </row>
   </sheetData>
@@ -14246,28 +14246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4555.607509186923</v>
+        <v>4727.076821152914</v>
       </c>
       <c r="AB2" t="n">
-        <v>6233.183173288809</v>
+        <v>6467.795050612846</v>
       </c>
       <c r="AC2" t="n">
-        <v>5638.296919557419</v>
+        <v>5850.51776858948</v>
       </c>
       <c r="AD2" t="n">
-        <v>4555607.509186924</v>
+        <v>4727076.821152914</v>
       </c>
       <c r="AE2" t="n">
-        <v>6233183.173288809</v>
+        <v>6467795.050612846</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.805447591776902e-07</v>
+        <v>1.129270697800081e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.24791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5638296.919557419</v>
+        <v>5850517.76858948</v>
       </c>
     </row>
     <row r="3">
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1673.579096161242</v>
+        <v>1776.39235695205</v>
       </c>
       <c r="AB3" t="n">
-        <v>2289.864752466656</v>
+        <v>2430.538391681584</v>
       </c>
       <c r="AC3" t="n">
-        <v>2071.323274336602</v>
+        <v>2198.57121886155</v>
       </c>
       <c r="AD3" t="n">
-        <v>1673579.096161242</v>
+        <v>1776392.35695205</v>
       </c>
       <c r="AE3" t="n">
-        <v>2289864.752466656</v>
+        <v>2430538.391681584</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.403451239938183e-06</v>
+        <v>2.030474668388089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.82916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2071323.274336603</v>
+        <v>2198571.21886155</v>
       </c>
     </row>
     <row r="4">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1306.917707642839</v>
+        <v>1392.65231887156</v>
       </c>
       <c r="AB4" t="n">
-        <v>1788.182464736957</v>
+        <v>1905.488342164195</v>
       </c>
       <c r="AC4" t="n">
-        <v>1617.520840032313</v>
+        <v>1723.631209157729</v>
       </c>
       <c r="AD4" t="n">
-        <v>1306917.707642839</v>
+        <v>1392652.31887156</v>
       </c>
       <c r="AE4" t="n">
-        <v>1788182.464736957</v>
+        <v>1905488.342164195</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.630938568960015e-06</v>
+        <v>2.359597081631632e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.78333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1617520.840032313</v>
+        <v>1723631.209157729</v>
       </c>
     </row>
     <row r="5">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1161.089298687349</v>
+        <v>1238.156663361719</v>
       </c>
       <c r="AB5" t="n">
-        <v>1588.653602108705</v>
+        <v>1694.10057042835</v>
       </c>
       <c r="AC5" t="n">
-        <v>1437.034732012784</v>
+        <v>1532.417989671752</v>
       </c>
       <c r="AD5" t="n">
-        <v>1161089.298687349</v>
+        <v>1238156.663361719</v>
       </c>
       <c r="AE5" t="n">
-        <v>1588653.602108705</v>
+        <v>1694100.57042835</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.751667138531395e-06</v>
+        <v>2.53426385685655e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.48958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1437034.732012784</v>
+        <v>1532417.989671752</v>
       </c>
     </row>
     <row r="6">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075.515487988109</v>
+        <v>1152.6681040085</v>
       </c>
       <c r="AB6" t="n">
-        <v>1471.567739059922</v>
+        <v>1577.131352032216</v>
       </c>
       <c r="AC6" t="n">
-        <v>1331.123379402336</v>
+        <v>1426.612149312015</v>
       </c>
       <c r="AD6" t="n">
-        <v>1075515.487988109</v>
+        <v>1152668.1040085</v>
       </c>
       <c r="AE6" t="n">
-        <v>1471567.739059922</v>
+        <v>1577131.352032216</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.826074758754438e-06</v>
+        <v>2.641914756081652e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.77708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1331123.379402336</v>
+        <v>1426612.149312015</v>
       </c>
     </row>
     <row r="7">
@@ -14776,28 +14776,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1023.770949978371</v>
+        <v>1092.341660298984</v>
       </c>
       <c r="AB7" t="n">
-        <v>1400.768579347094</v>
+        <v>1494.590050333993</v>
       </c>
       <c r="AC7" t="n">
-        <v>1267.081192125255</v>
+        <v>1351.948473600426</v>
       </c>
       <c r="AD7" t="n">
-        <v>1023770.949978371</v>
+        <v>1092341.660298984</v>
       </c>
       <c r="AE7" t="n">
-        <v>1400768.579347094</v>
+        <v>1494590.050333993</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.876954277721183e-06</v>
+        <v>2.715525845275101e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.32291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1267081.192125255</v>
+        <v>1351948.473600426</v>
       </c>
     </row>
     <row r="8">
@@ -14882,28 +14882,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>986.379570930098</v>
+        <v>1054.950281250711</v>
       </c>
       <c r="AB8" t="n">
-        <v>1349.608044942025</v>
+        <v>1443.429515928924</v>
       </c>
       <c r="AC8" t="n">
-        <v>1220.803347319545</v>
+        <v>1305.670628794716</v>
       </c>
       <c r="AD8" t="n">
-        <v>986379.570930098</v>
+        <v>1054950.281250711</v>
       </c>
       <c r="AE8" t="n">
-        <v>1349608.044942025</v>
+        <v>1443429.515928924</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.913863986567e-06</v>
+        <v>2.768925797262256e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.00833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1220803.347319545</v>
+        <v>1305670.628794716</v>
       </c>
     </row>
     <row r="9">
@@ -14988,28 +14988,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>945.3876176696474</v>
+        <v>1014.043579336281</v>
       </c>
       <c r="AB9" t="n">
-        <v>1293.521046053732</v>
+        <v>1387.459161693281</v>
       </c>
       <c r="AC9" t="n">
-        <v>1170.069212886553</v>
+        <v>1255.042006612437</v>
       </c>
       <c r="AD9" t="n">
-        <v>945387.6176696474</v>
+        <v>1014043.579336281</v>
       </c>
       <c r="AE9" t="n">
-        <v>1293521.046053732</v>
+        <v>1387459.161693281</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.943568214403077e-06</v>
+        <v>2.811901057427218e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.7625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1170069.212886553</v>
+        <v>1255042.006612437</v>
       </c>
     </row>
     <row r="10">
@@ -15094,28 +15094,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>920.2405919160764</v>
+        <v>988.8965535827098</v>
       </c>
       <c r="AB10" t="n">
-        <v>1259.113776009218</v>
+        <v>1353.051891648766</v>
       </c>
       <c r="AC10" t="n">
-        <v>1138.945724404181</v>
+        <v>1223.918518130065</v>
       </c>
       <c r="AD10" t="n">
-        <v>920240.5919160764</v>
+        <v>988896.5535827097</v>
       </c>
       <c r="AE10" t="n">
-        <v>1259113.776009218</v>
+        <v>1353051.891648766</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.964743505533745e-06</v>
+        <v>2.842536886455705e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.59375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1138945.724404181</v>
+        <v>1223918.518130064</v>
       </c>
     </row>
     <row r="11">
@@ -15200,28 +15200,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>897.2036010423341</v>
+        <v>965.6889705083754</v>
       </c>
       <c r="AB11" t="n">
-        <v>1227.593548775455</v>
+        <v>1321.298252640156</v>
       </c>
       <c r="AC11" t="n">
-        <v>1110.433743418691</v>
+        <v>1195.195401861924</v>
       </c>
       <c r="AD11" t="n">
-        <v>897203.6010423341</v>
+        <v>965688.9705083754</v>
       </c>
       <c r="AE11" t="n">
-        <v>1227593.548775455</v>
+        <v>1321298.252640156</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.983124834640228e-06</v>
+        <v>2.869130488042934e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.44791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1110433.743418691</v>
+        <v>1195195.401861924</v>
       </c>
     </row>
     <row r="12">
@@ -15306,28 +15306,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>872.3596172458467</v>
+        <v>940.8449867118881</v>
       </c>
       <c r="AB12" t="n">
-        <v>1193.60091410589</v>
+        <v>1287.305617970592</v>
       </c>
       <c r="AC12" t="n">
-        <v>1079.685318093028</v>
+        <v>1164.44697653626</v>
       </c>
       <c r="AD12" t="n">
-        <v>872359.6172458468</v>
+        <v>940844.9867118881</v>
       </c>
       <c r="AE12" t="n">
-        <v>1193600.91410589</v>
+        <v>1287305.617970592</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.998418100456822e-06</v>
+        <v>2.891256364563508e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.32916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1079685.318093028</v>
+        <v>1164446.97653626</v>
       </c>
     </row>
     <row r="13">
@@ -15412,28 +15412,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>852.8373144327869</v>
+        <v>921.3226838988281</v>
       </c>
       <c r="AB13" t="n">
-        <v>1166.889638133846</v>
+        <v>1260.594341998548</v>
       </c>
       <c r="AC13" t="n">
-        <v>1055.523328810245</v>
+        <v>1140.284987253477</v>
       </c>
       <c r="AD13" t="n">
-        <v>852837.3144327869</v>
+        <v>921322.6838988281</v>
       </c>
       <c r="AE13" t="n">
-        <v>1166889.638133846</v>
+        <v>1260594.341998548</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.012240859944897e-06</v>
+        <v>2.911254752957105e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.225</v>
       </c>
       <c r="AH13" t="n">
-        <v>1055523.328810245</v>
+        <v>1140284.987253477</v>
       </c>
     </row>
     <row r="14">
@@ -15518,28 +15518,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>840.5345772883525</v>
+        <v>900.6086332552078</v>
       </c>
       <c r="AB14" t="n">
-        <v>1150.056490414375</v>
+        <v>1232.252464068528</v>
       </c>
       <c r="AC14" t="n">
-        <v>1040.296713083648</v>
+        <v>1114.648018375022</v>
       </c>
       <c r="AD14" t="n">
-        <v>840534.5772883524</v>
+        <v>900608.6332552078</v>
       </c>
       <c r="AE14" t="n">
-        <v>1150056.490414375</v>
+        <v>1232252.464068528</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.018711087790379e-06</v>
+        <v>2.920615700715809e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.175</v>
       </c>
       <c r="AH14" t="n">
-        <v>1040296.713083648</v>
+        <v>1114648.018375022</v>
       </c>
     </row>
     <row r="15">
@@ -15624,28 +15624,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>835.2201255934713</v>
+        <v>895.2941815603266</v>
       </c>
       <c r="AB15" t="n">
-        <v>1142.785023148376</v>
+        <v>1224.98099680253</v>
       </c>
       <c r="AC15" t="n">
-        <v>1033.719224447948</v>
+        <v>1108.070529739323</v>
       </c>
       <c r="AD15" t="n">
-        <v>835220.1255934712</v>
+        <v>895294.1815603266</v>
       </c>
       <c r="AE15" t="n">
-        <v>1142785.023148376</v>
+        <v>1224980.99680253</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.023122606775934e-06</v>
+        <v>2.926998165096744e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.14166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1033719.224447948</v>
+        <v>1108070.529739323</v>
       </c>
     </row>
     <row r="16">
@@ -15730,28 +15730,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>838.4351451626119</v>
+        <v>898.5092011294672</v>
       </c>
       <c r="AB16" t="n">
-        <v>1147.183954759528</v>
+        <v>1229.379928413681</v>
       </c>
       <c r="AC16" t="n">
-        <v>1037.69832820007</v>
+        <v>1112.049633491445</v>
       </c>
       <c r="AD16" t="n">
-        <v>838435.1451626119</v>
+        <v>898509.2011294672</v>
       </c>
       <c r="AE16" t="n">
-        <v>1147183.954759528</v>
+        <v>1229379.928413681</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.023122606775934e-06</v>
+        <v>2.926998165096744e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.14375</v>
       </c>
       <c r="AH16" t="n">
-        <v>1037698.32820007</v>
+        <v>1112049.633491445</v>
       </c>
     </row>
   </sheetData>
@@ -16027,28 +16027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1769.736783459536</v>
+        <v>1874.982303491122</v>
       </c>
       <c r="AB2" t="n">
-        <v>2421.431942405947</v>
+        <v>2565.433506017813</v>
       </c>
       <c r="AC2" t="n">
-        <v>2190.333876323798</v>
+        <v>2320.592132812012</v>
       </c>
       <c r="AD2" t="n">
-        <v>1769736.783459536</v>
+        <v>1874982.303491122</v>
       </c>
       <c r="AE2" t="n">
-        <v>2421431.942405947</v>
+        <v>2565433.506017813</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.297985046943876e-06</v>
+        <v>1.949164174242871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.53333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2190333.876323798</v>
+        <v>2320592.132812012</v>
       </c>
     </row>
     <row r="3">
@@ -16133,28 +16133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1001.562058489749</v>
+        <v>1074.339090242519</v>
       </c>
       <c r="AB3" t="n">
-        <v>1370.381394225218</v>
+        <v>1469.958139765399</v>
       </c>
       <c r="AC3" t="n">
-        <v>1239.59411730273</v>
+        <v>1329.667398005396</v>
       </c>
       <c r="AD3" t="n">
-        <v>1001562.058489749</v>
+        <v>1074339.090242519</v>
       </c>
       <c r="AE3" t="n">
-        <v>1370381.394225218</v>
+        <v>1469958.1397654</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.804197624389079e-06</v>
+        <v>2.709335813223238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.37083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1239594.11730273</v>
+        <v>1329667.398005396</v>
       </c>
     </row>
     <row r="4">
@@ -16239,28 +16239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>839.5172201436619</v>
+        <v>912.2941623878809</v>
       </c>
       <c r="AB4" t="n">
-        <v>1148.66449748638</v>
+        <v>1248.241120557012</v>
       </c>
       <c r="AC4" t="n">
-        <v>1039.037570007026</v>
+        <v>1129.110739928466</v>
       </c>
       <c r="AD4" t="n">
-        <v>839517.220143662</v>
+        <v>912294.1623878808</v>
       </c>
       <c r="AE4" t="n">
-        <v>1148664.497486379</v>
+        <v>1248241.120557012</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.979828889473775e-06</v>
+        <v>2.973078581744396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.73958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1039037.570007026</v>
+        <v>1129110.739928466</v>
       </c>
     </row>
     <row r="5">
@@ -16345,28 +16345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>767.5518369559924</v>
+        <v>832.2330594755633</v>
       </c>
       <c r="AB5" t="n">
-        <v>1050.198285320376</v>
+        <v>1138.697987505798</v>
       </c>
       <c r="AC5" t="n">
-        <v>949.9688349319495</v>
+        <v>1030.022249750907</v>
       </c>
       <c r="AD5" t="n">
-        <v>767551.8369559924</v>
+        <v>832233.0594755634</v>
       </c>
       <c r="AE5" t="n">
-        <v>1050198.285320376</v>
+        <v>1138697.987505798</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.070189902669525e-06</v>
+        <v>3.10877232496905e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.01041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>949968.8349319495</v>
+        <v>1030022.249750907</v>
       </c>
     </row>
     <row r="6">
@@ -16451,28 +16451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>709.9046589409681</v>
+        <v>774.6711328065596</v>
       </c>
       <c r="AB6" t="n">
-        <v>971.3228731462169</v>
+        <v>1059.939219984288</v>
       </c>
       <c r="AC6" t="n">
-        <v>878.6211813933559</v>
+        <v>958.7801084630255</v>
       </c>
       <c r="AD6" t="n">
-        <v>709904.6589409681</v>
+        <v>774671.1328065597</v>
       </c>
       <c r="AE6" t="n">
-        <v>971322.873146217</v>
+        <v>1059939.219984288</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.126824622207706e-06</v>
+        <v>3.193819811919713e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.58333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>878621.1813933558</v>
+        <v>958780.1084630255</v>
       </c>
     </row>
     <row r="7">
@@ -16557,28 +16557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>684.7346682304458</v>
+        <v>749.330549895445</v>
       </c>
       <c r="AB7" t="n">
-        <v>936.8841814344598</v>
+        <v>1025.267116497684</v>
       </c>
       <c r="AC7" t="n">
-        <v>847.4692700835616</v>
+        <v>927.41706187058</v>
       </c>
       <c r="AD7" t="n">
-        <v>684734.6682304458</v>
+        <v>749330.549895445</v>
       </c>
       <c r="AE7" t="n">
-        <v>936884.1814344599</v>
+        <v>1025267.116497684</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.151801169869207e-06</v>
+        <v>3.231326709254697e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.40208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>847469.2700835615</v>
+        <v>927417.0618705801</v>
       </c>
     </row>
     <row r="8">
@@ -16663,28 +16663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>684.549760000169</v>
+        <v>749.1456416651682</v>
       </c>
       <c r="AB8" t="n">
-        <v>936.6311818362199</v>
+        <v>1025.014116899444</v>
       </c>
       <c r="AC8" t="n">
-        <v>847.2404164118905</v>
+        <v>927.1882081989089</v>
       </c>
       <c r="AD8" t="n">
-        <v>684549.760000169</v>
+        <v>749145.6416651682</v>
       </c>
       <c r="AE8" t="n">
-        <v>936631.1818362199</v>
+        <v>1025014.116899444</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.154982895685959e-06</v>
+        <v>3.23610465795979e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.37916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>847240.4164118904</v>
+        <v>927188.2081989089</v>
       </c>
     </row>
   </sheetData>
@@ -16960,28 +16960,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1218.31685369391</v>
+        <v>1304.671714260774</v>
       </c>
       <c r="AB2" t="n">
-        <v>1666.954867570225</v>
+        <v>1785.109397505381</v>
       </c>
       <c r="AC2" t="n">
-        <v>1507.863034595172</v>
+        <v>1614.741062024241</v>
       </c>
       <c r="AD2" t="n">
-        <v>1218316.85369391</v>
+        <v>1304671.714260774</v>
       </c>
       <c r="AE2" t="n">
-        <v>1666954.867570225</v>
+        <v>1785109.397505381</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.564185583710799e-06</v>
+        <v>2.399064553664104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1507863.034595172</v>
+        <v>1614741.062024241</v>
       </c>
     </row>
     <row r="3">
@@ -17066,28 +17066,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>779.0357387810133</v>
+        <v>849.5888745091451</v>
       </c>
       <c r="AB3" t="n">
-        <v>1065.911066431362</v>
+        <v>1162.444979319265</v>
       </c>
       <c r="AC3" t="n">
-        <v>964.1820102667297</v>
+        <v>1051.502861994809</v>
       </c>
       <c r="AD3" t="n">
-        <v>779035.7387810133</v>
+        <v>849588.874509145</v>
       </c>
       <c r="AE3" t="n">
-        <v>1065911.066431362</v>
+        <v>1162444.979319265</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.004490816883762e-06</v>
+        <v>3.074381273558746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.22291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>964182.0102667296</v>
+        <v>1051502.861994809</v>
       </c>
     </row>
     <row r="4">
@@ -17172,28 +17172,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>667.1450280852151</v>
+        <v>729.9253126758381</v>
       </c>
       <c r="AB4" t="n">
-        <v>912.8172597875995</v>
+        <v>998.7160148351724</v>
       </c>
       <c r="AC4" t="n">
-        <v>825.6992616605409</v>
+        <v>903.3999600860332</v>
       </c>
       <c r="AD4" t="n">
-        <v>667145.0280852151</v>
+        <v>729925.3126758381</v>
       </c>
       <c r="AE4" t="n">
-        <v>912817.2597875994</v>
+        <v>998716.0148351723</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.155291630653952e-06</v>
+        <v>3.305671531407495e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.01875</v>
       </c>
       <c r="AH4" t="n">
-        <v>825699.2616605408</v>
+        <v>903399.9600860332</v>
       </c>
     </row>
     <row r="5">
@@ -17278,28 +17278,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>619.6476431547204</v>
+        <v>682.5131790913639</v>
       </c>
       <c r="AB5" t="n">
-        <v>847.8292422889618</v>
+        <v>933.844641989184</v>
       </c>
       <c r="AC5" t="n">
-        <v>766.9136093407177</v>
+        <v>844.7198200169222</v>
       </c>
       <c r="AD5" t="n">
-        <v>619647.6431547204</v>
+        <v>682513.1790913639</v>
       </c>
       <c r="AE5" t="n">
-        <v>847829.2422889619</v>
+        <v>933844.641989184</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.207160481983699e-06</v>
+        <v>3.385225213502724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.64166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>766913.6093407177</v>
+        <v>844719.8200169222</v>
       </c>
     </row>
     <row r="6">
@@ -17384,28 +17384,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>622.2494385979325</v>
+        <v>685.1149745345759</v>
       </c>
       <c r="AB6" t="n">
-        <v>851.3891335974783</v>
+        <v>937.4045332977006</v>
       </c>
       <c r="AC6" t="n">
-        <v>770.1337496190882</v>
+        <v>847.939960295293</v>
       </c>
       <c r="AD6" t="n">
-        <v>622249.4385979325</v>
+        <v>685114.9745345759</v>
       </c>
       <c r="AE6" t="n">
-        <v>851389.1335974784</v>
+        <v>937404.5332977006</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.209149064143306e-06</v>
+        <v>3.388275194924905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.62708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>770133.7496190883</v>
+        <v>847939.960295293</v>
       </c>
     </row>
   </sheetData>
@@ -32118,28 +32118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>903.6347543819267</v>
+        <v>987.8149336637889</v>
       </c>
       <c r="AB2" t="n">
-        <v>1236.392936497147</v>
+        <v>1351.571971557996</v>
       </c>
       <c r="AC2" t="n">
-        <v>1118.393329926243</v>
+        <v>1222.579839535676</v>
       </c>
       <c r="AD2" t="n">
-        <v>903634.7543819266</v>
+        <v>987814.933663789</v>
       </c>
       <c r="AE2" t="n">
-        <v>1236392.936497146</v>
+        <v>1351571.971557996</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.785731349849821e-06</v>
+        <v>2.790170009936695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.99791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1118393.329926243</v>
+        <v>1222579.839535676</v>
       </c>
     </row>
     <row r="3">
@@ -32224,28 +32224,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.7070545911658</v>
+        <v>681.9678839658767</v>
       </c>
       <c r="AB3" t="n">
-        <v>849.2787757542407</v>
+        <v>933.0985451417694</v>
       </c>
       <c r="AC3" t="n">
-        <v>768.2248013665034</v>
+        <v>844.0449296054715</v>
       </c>
       <c r="AD3" t="n">
-        <v>620707.0545911659</v>
+        <v>681967.8839658767</v>
       </c>
       <c r="AE3" t="n">
-        <v>849278.7757542407</v>
+        <v>933098.5451417693</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.172636951905216e-06</v>
+        <v>3.394702381293815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>768224.8013665034</v>
+        <v>844044.9296054714</v>
       </c>
     </row>
     <row r="4">
@@ -32330,28 +32330,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>574.9869133713719</v>
+        <v>643.8305724730513</v>
       </c>
       <c r="AB4" t="n">
-        <v>786.7224615070429</v>
+        <v>880.9173930578477</v>
       </c>
       <c r="AC4" t="n">
-        <v>711.6387739527195</v>
+        <v>796.8438734397322</v>
       </c>
       <c r="AD4" t="n">
-        <v>574986.9133713719</v>
+        <v>643830.5724730514</v>
       </c>
       <c r="AE4" t="n">
-        <v>786722.4615070429</v>
+        <v>880917.3930578476</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.238464045919072e-06</v>
+        <v>3.497555917226972e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.95416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>711638.7739527195</v>
+        <v>796843.8734397322</v>
       </c>
     </row>
   </sheetData>
@@ -32627,28 +32627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>505.6261293269586</v>
+        <v>571.0813425588486</v>
       </c>
       <c r="AB2" t="n">
-        <v>691.8199767956471</v>
+        <v>781.3786872197245</v>
       </c>
       <c r="AC2" t="n">
-        <v>625.7936491857055</v>
+        <v>706.8050019833486</v>
       </c>
       <c r="AD2" t="n">
-        <v>505626.1293269586</v>
+        <v>571081.3425588487</v>
       </c>
       <c r="AE2" t="n">
-        <v>691819.9767956471</v>
+        <v>781378.6872197245</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.208076258021457e-06</v>
+        <v>3.598449177752665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.35833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>625793.6491857055</v>
+        <v>706805.0019833486</v>
       </c>
     </row>
     <row r="3">
@@ -32733,28 +32733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>509.6494772497197</v>
+        <v>575.1046904816097</v>
       </c>
       <c r="AB3" t="n">
-        <v>697.3248989211521</v>
+        <v>786.8836093452296</v>
       </c>
       <c r="AC3" t="n">
-        <v>630.773189269759</v>
+        <v>711.7845420674022</v>
       </c>
       <c r="AD3" t="n">
-        <v>509649.4772497197</v>
+        <v>575104.6904816098</v>
       </c>
       <c r="AE3" t="n">
-        <v>697324.8989211521</v>
+        <v>786883.6093452296</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.211572087444205e-06</v>
+        <v>3.604146247528292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.33125</v>
       </c>
       <c r="AH3" t="n">
-        <v>630773.189269759</v>
+        <v>711784.5420674022</v>
       </c>
     </row>
   </sheetData>
@@ -33030,28 +33030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2504.799021942777</v>
+        <v>2629.256956531096</v>
       </c>
       <c r="AB2" t="n">
-        <v>3427.176525756176</v>
+        <v>3597.465362556482</v>
       </c>
       <c r="AC2" t="n">
-        <v>3100.091608210341</v>
+        <v>3254.128317428303</v>
       </c>
       <c r="AD2" t="n">
-        <v>2504799.021942778</v>
+        <v>2629256.956531096</v>
       </c>
       <c r="AE2" t="n">
-        <v>3427176.525756176</v>
+        <v>3597465.362556482</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.081242627003537e-06</v>
+        <v>1.59740710243249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.64791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3100091.608210341</v>
+        <v>3254128.317428303</v>
       </c>
     </row>
     <row r="3">
@@ -33136,28 +33136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1234.892417403078</v>
+        <v>1317.86437379529</v>
       </c>
       <c r="AB3" t="n">
-        <v>1689.63428509937</v>
+        <v>1803.160176299568</v>
       </c>
       <c r="AC3" t="n">
-        <v>1528.377960346099</v>
+        <v>1631.069099824738</v>
       </c>
       <c r="AD3" t="n">
-        <v>1234892.417403078</v>
+        <v>1317864.37379529</v>
       </c>
       <c r="AE3" t="n">
-        <v>1689634.28509937</v>
+        <v>1803160.176299568</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.635789151511969e-06</v>
+        <v>2.416683493092329e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.59791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1528377.960346099</v>
+        <v>1631069.099824738</v>
       </c>
     </row>
     <row r="4">
@@ -33242,28 +33242,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1011.497306665735</v>
+        <v>1086.001475218133</v>
       </c>
       <c r="AB4" t="n">
-        <v>1383.975239091817</v>
+        <v>1485.915129397149</v>
       </c>
       <c r="AC4" t="n">
-        <v>1251.890584694341</v>
+        <v>1344.101474942466</v>
       </c>
       <c r="AD4" t="n">
-        <v>1011497.306665735</v>
+        <v>1086001.475218134</v>
       </c>
       <c r="AE4" t="n">
-        <v>1383975.239091817</v>
+        <v>1485915.129397148</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.836435285795818e-06</v>
+        <v>2.713114240434291e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.45625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1251890.584694342</v>
+        <v>1344101.474942466</v>
       </c>
     </row>
     <row r="5">
@@ -33348,28 +33348,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>913.9380921502395</v>
+        <v>988.5275120486587</v>
       </c>
       <c r="AB5" t="n">
-        <v>1250.490417782934</v>
+        <v>1352.546952740914</v>
       </c>
       <c r="AC5" t="n">
-        <v>1131.145367384054</v>
+        <v>1223.461769882891</v>
       </c>
       <c r="AD5" t="n">
-        <v>913938.0921502395</v>
+        <v>988527.5120486587</v>
       </c>
       <c r="AE5" t="n">
-        <v>1250490.417782934</v>
+        <v>1352546.952740914</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.936758352937743e-06</v>
+        <v>2.861329614105272e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.55208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1131145.367384054</v>
+        <v>1223461.769882891</v>
       </c>
     </row>
     <row r="6">
@@ -33454,28 +33454,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>859.3948805378553</v>
+        <v>925.6871943056043</v>
       </c>
       <c r="AB6" t="n">
-        <v>1175.8619893782</v>
+        <v>1266.566057685709</v>
       </c>
       <c r="AC6" t="n">
-        <v>1063.639371444611</v>
+        <v>1145.686770776811</v>
       </c>
       <c r="AD6" t="n">
-        <v>859394.8805378553</v>
+        <v>925687.1943056043</v>
       </c>
       <c r="AE6" t="n">
-        <v>1175861.9893782</v>
+        <v>1266566.057685709</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.998152377154964e-06</v>
+        <v>2.952031967011287e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1063639.371444611</v>
+        <v>1145686.770776811</v>
       </c>
     </row>
     <row r="7">
@@ -33560,28 +33560,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>807.869979653069</v>
+        <v>874.2475447668385</v>
       </c>
       <c r="AB7" t="n">
-        <v>1105.363346869437</v>
+        <v>1196.184059829595</v>
       </c>
       <c r="AC7" t="n">
-        <v>999.869020431418</v>
+        <v>1082.02193201433</v>
       </c>
       <c r="AD7" t="n">
-        <v>807869.9796530689</v>
+        <v>874247.5447668384</v>
       </c>
       <c r="AE7" t="n">
-        <v>1105363.346869437</v>
+        <v>1196184.059829595</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.043236209474879e-06</v>
+        <v>3.018637955486129e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.68958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>999869.020431418</v>
+        <v>1082021.93201433</v>
       </c>
     </row>
     <row r="8">
@@ -33666,28 +33666,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>771.3918491401115</v>
+        <v>837.5988220532888</v>
       </c>
       <c r="AB8" t="n">
-        <v>1055.452359400069</v>
+        <v>1146.03966058538</v>
       </c>
       <c r="AC8" t="n">
-        <v>954.7214675556161</v>
+        <v>1036.663243855877</v>
       </c>
       <c r="AD8" t="n">
-        <v>771391.8491401115</v>
+        <v>837598.8220532888</v>
       </c>
       <c r="AE8" t="n">
-        <v>1055452.359400069</v>
+        <v>1146039.66058538</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.076472072209013e-06</v>
+        <v>3.06773998111946e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.4375</v>
       </c>
       <c r="AH8" t="n">
-        <v>954721.4675556161</v>
+        <v>1036663.243855877</v>
       </c>
     </row>
     <row r="9">
@@ -33772,28 +33772,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>746.4371695281698</v>
+        <v>812.644142441347</v>
       </c>
       <c r="AB9" t="n">
-        <v>1021.308265832245</v>
+        <v>1111.895567017556</v>
       </c>
       <c r="AC9" t="n">
-        <v>923.8360383563687</v>
+        <v>1005.77781465663</v>
       </c>
       <c r="AD9" t="n">
-        <v>746437.1695281698</v>
+        <v>812644.142441347</v>
       </c>
       <c r="AE9" t="n">
-        <v>1021308.265832245</v>
+        <v>1111895.567017556</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.097859965357368e-06</v>
+        <v>3.09933804391128e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.27916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>923836.0383563687</v>
+        <v>1005777.81465663</v>
       </c>
     </row>
     <row r="10">
@@ -33878,28 +33878,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>741.9856939203225</v>
+        <v>808.1926668334999</v>
       </c>
       <c r="AB10" t="n">
-        <v>1015.217560520345</v>
+        <v>1105.804861705656</v>
       </c>
       <c r="AC10" t="n">
-        <v>918.3266214110779</v>
+        <v>1000.268397711339</v>
       </c>
       <c r="AD10" t="n">
-        <v>741985.6939203226</v>
+        <v>808192.6668334999</v>
       </c>
       <c r="AE10" t="n">
-        <v>1015217.560520345</v>
+        <v>1105804.861705656</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.101091229789853e-06</v>
+        <v>3.104111851958965e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.25833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>918326.6214110779</v>
+        <v>1000268.397711339</v>
       </c>
     </row>
     <row r="11">
@@ -33984,28 +33984,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>745.1229433882463</v>
+        <v>811.3299163014237</v>
       </c>
       <c r="AB11" t="n">
-        <v>1019.510083648037</v>
+        <v>1110.097384833348</v>
       </c>
       <c r="AC11" t="n">
-        <v>922.2094721560567</v>
+        <v>1004.151248456318</v>
       </c>
       <c r="AD11" t="n">
-        <v>745122.9433882463</v>
+        <v>811329.9163014237</v>
       </c>
       <c r="AE11" t="n">
-        <v>1019510.083648037</v>
+        <v>1110097.384833348</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.100937360054973e-06</v>
+        <v>3.103884527766218e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.25833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>922209.4721560567</v>
+        <v>1004151.248456318</v>
       </c>
     </row>
   </sheetData>
@@ -34281,28 +34281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4016.150176400191</v>
+        <v>4178.115509519045</v>
       </c>
       <c r="AB2" t="n">
-        <v>5495.073851392098</v>
+        <v>5716.681965571527</v>
       </c>
       <c r="AC2" t="n">
-        <v>4970.631715399617</v>
+        <v>5171.089862190694</v>
       </c>
       <c r="AD2" t="n">
-        <v>4016150.176400191</v>
+        <v>4178115.509519045</v>
       </c>
       <c r="AE2" t="n">
-        <v>5495073.851392098</v>
+        <v>5716681.965571527</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.359675317464773e-07</v>
+        <v>1.213966147673932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.94791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4970631.715399617</v>
+        <v>5171089.862190695</v>
       </c>
     </row>
     <row r="3">
@@ -34387,28 +34387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1582.176012087569</v>
+        <v>1675.824231134751</v>
       </c>
       <c r="AB3" t="n">
-        <v>2164.803020417581</v>
+        <v>2292.936645185774</v>
       </c>
       <c r="AC3" t="n">
-        <v>1958.197258469049</v>
+        <v>2074.101989926037</v>
       </c>
       <c r="AD3" t="n">
-        <v>1582176.01208757</v>
+        <v>1675824.231134751</v>
       </c>
       <c r="AE3" t="n">
-        <v>2164803.020417581</v>
+        <v>2292936.645185774</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446707202421139e-06</v>
+        <v>2.100863374043021e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.35208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1958197.258469049</v>
+        <v>2074101.989926037</v>
       </c>
     </row>
     <row r="4">
@@ -34493,28 +34493,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1246.855419323013</v>
+        <v>1332.059906875508</v>
       </c>
       <c r="AB4" t="n">
-        <v>1706.002592096622</v>
+        <v>1822.583130922642</v>
       </c>
       <c r="AC4" t="n">
-        <v>1543.184099096595</v>
+        <v>1648.638354918874</v>
       </c>
       <c r="AD4" t="n">
-        <v>1246855.419323013</v>
+        <v>1332059.906875508</v>
       </c>
       <c r="AE4" t="n">
-        <v>1706002.592096622</v>
+        <v>1822583.130922642</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.669266135580319e-06</v>
+        <v>2.424056560928188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.50416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1543184.099096596</v>
+        <v>1648638.354918875</v>
       </c>
     </row>
     <row r="5">
@@ -34599,28 +34599,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1110.914011763394</v>
+        <v>1187.504265129161</v>
       </c>
       <c r="AB5" t="n">
-        <v>1520.001560961918</v>
+        <v>1624.795724540467</v>
       </c>
       <c r="AC5" t="n">
-        <v>1374.934745319301</v>
+        <v>1469.727501005446</v>
       </c>
       <c r="AD5" t="n">
-        <v>1110914.011763394</v>
+        <v>1187504.265129161</v>
       </c>
       <c r="AE5" t="n">
-        <v>1520001.560961918</v>
+        <v>1624795.724540467</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.787736880146732e-06</v>
+        <v>2.596096105446008e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.27916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1374934.745319301</v>
+        <v>1469727.501005446</v>
       </c>
     </row>
     <row r="6">
@@ -34705,28 +34705,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1031.467879228623</v>
+        <v>1108.143383940411</v>
       </c>
       <c r="AB6" t="n">
-        <v>1411.299857511842</v>
+        <v>1516.21066574304</v>
       </c>
       <c r="AC6" t="n">
-        <v>1276.607379882701</v>
+        <v>1371.505647819559</v>
       </c>
       <c r="AD6" t="n">
-        <v>1031467.879228623</v>
+        <v>1108143.383940411</v>
       </c>
       <c r="AE6" t="n">
-        <v>1411299.857511842</v>
+        <v>1516210.66574304</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.859056564923259e-06</v>
+        <v>2.699664341882894e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.61666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1276607.379882701</v>
+        <v>1371505.647819559</v>
       </c>
     </row>
     <row r="7">
@@ -34811,28 +34811,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>982.9643182833171</v>
+        <v>1051.11092966295</v>
       </c>
       <c r="AB7" t="n">
-        <v>1344.935145600386</v>
+        <v>1438.176345706312</v>
       </c>
       <c r="AC7" t="n">
-        <v>1216.576422932617</v>
+        <v>1300.918813765279</v>
       </c>
       <c r="AD7" t="n">
-        <v>982964.318283317</v>
+        <v>1051110.92966295</v>
       </c>
       <c r="AE7" t="n">
-        <v>1344935.145600386</v>
+        <v>1438176.345706312</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.907986909988235e-06</v>
+        <v>2.770719472910279e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.18958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1216576.422932617</v>
+        <v>1300918.813765279</v>
       </c>
     </row>
     <row r="8">
@@ -34917,28 +34917,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>936.3655038574173</v>
+        <v>1012.955667714634</v>
       </c>
       <c r="AB8" t="n">
-        <v>1281.176591908269</v>
+        <v>1385.970633017269</v>
       </c>
       <c r="AC8" t="n">
-        <v>1158.902896119183</v>
+        <v>1253.695541024101</v>
       </c>
       <c r="AD8" t="n">
-        <v>936365.5038574173</v>
+        <v>1012955.667714634</v>
       </c>
       <c r="AE8" t="n">
-        <v>1281176.591908269</v>
+        <v>1385970.633017269</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.94550017453805e-06</v>
+        <v>2.825195073364608e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.87708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1158902.896119183</v>
+        <v>1253695.541024101</v>
       </c>
     </row>
     <row r="9">
@@ -35023,28 +35023,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>905.9157702854239</v>
+        <v>974.1476330110771</v>
       </c>
       <c r="AB9" t="n">
-        <v>1239.513923087631</v>
+        <v>1332.871767846206</v>
       </c>
       <c r="AC9" t="n">
-        <v>1121.216453936864</v>
+        <v>1205.664357020238</v>
       </c>
       <c r="AD9" t="n">
-        <v>905915.770285424</v>
+        <v>974147.6330110771</v>
       </c>
       <c r="AE9" t="n">
-        <v>1239513.923087631</v>
+        <v>1332871.767846206</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.972782548756098e-06</v>
+        <v>2.864813691876847e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.65833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1121216.453936864</v>
+        <v>1205664.357020238</v>
       </c>
     </row>
     <row r="10">
@@ -35129,28 +35129,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>879.4170878942763</v>
+        <v>947.478358419337</v>
       </c>
       <c r="AB10" t="n">
-        <v>1203.257256800702</v>
+        <v>1296.38168978443</v>
       </c>
       <c r="AC10" t="n">
-        <v>1088.420072993809</v>
+        <v>1172.656840794532</v>
       </c>
       <c r="AD10" t="n">
-        <v>879417.0878942763</v>
+        <v>947478.3584193371</v>
       </c>
       <c r="AE10" t="n">
-        <v>1203257.256800702</v>
+        <v>1296381.68978443</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.994875340921799e-06</v>
+        <v>2.896896160128605e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.48333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1088420.072993809</v>
+        <v>1172656.840794532</v>
       </c>
     </row>
     <row r="11">
@@ -35235,28 +35235,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>858.6596340203533</v>
+        <v>926.7209045454142</v>
       </c>
       <c r="AB11" t="n">
-        <v>1174.855992656167</v>
+        <v>1267.980425639894</v>
       </c>
       <c r="AC11" t="n">
-        <v>1062.729385637803</v>
+        <v>1146.966153438526</v>
       </c>
       <c r="AD11" t="n">
-        <v>858659.6340203533</v>
+        <v>926720.9045454143</v>
       </c>
       <c r="AE11" t="n">
-        <v>1174855.992656167</v>
+        <v>1267980.425639894</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.010295813305913e-06</v>
+        <v>2.919289292331175e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.36666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1062729.385637803</v>
+        <v>1146966.153438526</v>
       </c>
     </row>
     <row r="12">
@@ -35341,28 +35341,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>835.1111939463843</v>
+        <v>903.1724644714453</v>
       </c>
       <c r="AB12" t="n">
-        <v>1142.635978063107</v>
+        <v>1235.760411046834</v>
       </c>
       <c r="AC12" t="n">
-        <v>1033.584404016431</v>
+        <v>1117.821171817154</v>
       </c>
       <c r="AD12" t="n">
-        <v>835111.1939463844</v>
+        <v>903172.4644714453</v>
       </c>
       <c r="AE12" t="n">
-        <v>1142635.978063107</v>
+        <v>1235760.411046834</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.026012833235875e-06</v>
+        <v>2.942113061691487e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.24583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1033584.404016431</v>
+        <v>1117821.171817154</v>
       </c>
     </row>
     <row r="13">
@@ -35447,28 +35447,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>821.2282967515412</v>
+        <v>889.2895672766022</v>
       </c>
       <c r="AB13" t="n">
-        <v>1123.640785650924</v>
+        <v>1216.765218634652</v>
       </c>
       <c r="AC13" t="n">
-        <v>1016.402086108147</v>
+        <v>1100.63885390887</v>
       </c>
       <c r="AD13" t="n">
-        <v>821228.2967515412</v>
+        <v>889289.5672766021</v>
       </c>
       <c r="AE13" t="n">
-        <v>1123640.785650924</v>
+        <v>1216765.218634652</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.034464438292553e-06</v>
+        <v>2.954386220687126e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.18333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1016402.086108147</v>
+        <v>1100638.85390887</v>
       </c>
     </row>
     <row r="14">
@@ -35553,28 +35553,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>820.702956880563</v>
+        <v>880.4059262740604</v>
       </c>
       <c r="AB14" t="n">
-        <v>1122.921992463092</v>
+        <v>1204.610229096394</v>
       </c>
       <c r="AC14" t="n">
-        <v>1015.751893533329</v>
+        <v>1089.643919512508</v>
       </c>
       <c r="AD14" t="n">
-        <v>820702.9568805629</v>
+        <v>880405.9262740605</v>
       </c>
       <c r="AE14" t="n">
-        <v>1122921.992463093</v>
+        <v>1204610.229096394</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.035947176021795e-06</v>
+        <v>2.956539406475835e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.17291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1015751.893533329</v>
+        <v>1089643.919512508</v>
       </c>
     </row>
     <row r="15">
@@ -35659,28 +35659,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>823.5834167300285</v>
+        <v>883.2863861235262</v>
       </c>
       <c r="AB15" t="n">
-        <v>1126.863164706051</v>
+        <v>1208.551401339352</v>
       </c>
       <c r="AC15" t="n">
-        <v>1019.31692582889</v>
+        <v>1093.208951808069</v>
       </c>
       <c r="AD15" t="n">
-        <v>823583.4167300285</v>
+        <v>883286.3861235261</v>
       </c>
       <c r="AE15" t="n">
-        <v>1126863.164706051</v>
+        <v>1208551.401339352</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.035650628475946e-06</v>
+        <v>2.956108769318093e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.175</v>
       </c>
       <c r="AH15" t="n">
-        <v>1019316.92582889</v>
+        <v>1093208.951808069</v>
       </c>
     </row>
   </sheetData>
@@ -35956,28 +35956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.4919297421241</v>
+        <v>546.5632285901636</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.5890354966172</v>
+        <v>747.8319220249214</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.4977310562655</v>
+        <v>676.4598929755566</v>
       </c>
       <c r="AD2" t="n">
-        <v>475491.9297421241</v>
+        <v>546563.2285901636</v>
       </c>
       <c r="AE2" t="n">
-        <v>650589.0354966172</v>
+        <v>747831.9220249214</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.107376142676143e-06</v>
+        <v>3.512870474389841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.83541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>588497.7310562655</v>
+        <v>676459.8929755567</v>
       </c>
     </row>
   </sheetData>
@@ -36253,28 +36253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1387.690516157764</v>
+        <v>1482.830415666961</v>
       </c>
       <c r="AB2" t="n">
-        <v>1898.699384791893</v>
+        <v>2028.873992576516</v>
       </c>
       <c r="AC2" t="n">
-        <v>1717.490180348678</v>
+        <v>1835.241106267545</v>
       </c>
       <c r="AD2" t="n">
-        <v>1387690.516157764</v>
+        <v>1482830.415666962</v>
       </c>
       <c r="AE2" t="n">
-        <v>1898699.384791893</v>
+        <v>2028873.992576516</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.468228004244835e-06</v>
+        <v>2.23450592185766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.17083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1717490.180348678</v>
+        <v>1835241.106267545</v>
       </c>
     </row>
     <row r="3">
@@ -36359,28 +36359,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>850.9638057114768</v>
+        <v>922.4466744938195</v>
       </c>
       <c r="AB3" t="n">
-        <v>1164.326220847978</v>
+        <v>1262.132235517581</v>
       </c>
       <c r="AC3" t="n">
-        <v>1053.204560472361</v>
+        <v>1141.6761063735</v>
       </c>
       <c r="AD3" t="n">
-        <v>850963.8057114767</v>
+        <v>922446.6744938195</v>
       </c>
       <c r="AE3" t="n">
-        <v>1164326.220847978</v>
+        <v>1262132.235517581</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.932162578826036e-06</v>
+        <v>2.940571022958495e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.60833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1053204.560472361</v>
+        <v>1141676.1063735</v>
       </c>
     </row>
     <row r="4">
@@ -36465,28 +36465,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>726.4784434856849</v>
+        <v>789.9335199461915</v>
       </c>
       <c r="AB4" t="n">
-        <v>993.9998563440682</v>
+        <v>1080.821891397732</v>
       </c>
       <c r="AC4" t="n">
-        <v>899.1339051421501</v>
+        <v>977.6697670257836</v>
       </c>
       <c r="AD4" t="n">
-        <v>726478.4434856849</v>
+        <v>789933.5199461915</v>
       </c>
       <c r="AE4" t="n">
-        <v>993999.8563440682</v>
+        <v>1080821.891397732</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.092522928082896e-06</v>
+        <v>3.184624500354138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.25833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>899133.9051421501</v>
+        <v>977669.7670257835</v>
       </c>
     </row>
     <row r="5">
@@ -36571,28 +36571,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>654.4485591031644</v>
+        <v>717.9888869096912</v>
       </c>
       <c r="AB5" t="n">
-        <v>895.4453907976778</v>
+        <v>982.3840705039906</v>
       </c>
       <c r="AC5" t="n">
-        <v>809.9853394654459</v>
+        <v>888.6267135997917</v>
       </c>
       <c r="AD5" t="n">
-        <v>654448.5591031644</v>
+        <v>717988.8869096913</v>
       </c>
       <c r="AE5" t="n">
-        <v>895445.3907976778</v>
+        <v>982384.0705039906</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.174989299136577e-06</v>
+        <v>3.310130616530105e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.64166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>809985.339465446</v>
+        <v>888626.7135997918</v>
       </c>
     </row>
     <row r="6">
@@ -36677,28 +36677,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>642.8379191276753</v>
+        <v>706.3782469342021</v>
       </c>
       <c r="AB6" t="n">
-        <v>879.5592009579289</v>
+        <v>966.497880664242</v>
       </c>
       <c r="AC6" t="n">
-        <v>795.6153052875952</v>
+        <v>874.256679421941</v>
       </c>
       <c r="AD6" t="n">
-        <v>642837.9191276752</v>
+        <v>706378.2469342022</v>
       </c>
       <c r="AE6" t="n">
-        <v>879559.2009579289</v>
+        <v>966497.880664242</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.190339475134687e-06</v>
+        <v>3.333492151026225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.53125</v>
       </c>
       <c r="AH6" t="n">
-        <v>795615.3052875953</v>
+        <v>874256.6794219411</v>
       </c>
     </row>
     <row r="7">
@@ -36783,28 +36783,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>646.4602113878561</v>
+        <v>710.0005391943831</v>
       </c>
       <c r="AB7" t="n">
-        <v>884.5153810325647</v>
+        <v>971.4540607388776</v>
       </c>
       <c r="AC7" t="n">
-        <v>800.0984744919501</v>
+        <v>878.7398486262961</v>
       </c>
       <c r="AD7" t="n">
-        <v>646460.2113878562</v>
+        <v>710000.5391943831</v>
       </c>
       <c r="AE7" t="n">
-        <v>884515.3810325647</v>
+        <v>971454.0607388776</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.190339475134687e-06</v>
+        <v>3.333492151026225e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.53333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>800098.4744919501</v>
+        <v>878739.848626296</v>
       </c>
     </row>
   </sheetData>
@@ -37080,28 +37080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1985.486358393581</v>
+        <v>2099.728113681446</v>
       </c>
       <c r="AB2" t="n">
-        <v>2716.630029030192</v>
+        <v>2872.940638605587</v>
       </c>
       <c r="AC2" t="n">
-        <v>2457.358671873742</v>
+        <v>2598.75121625458</v>
       </c>
       <c r="AD2" t="n">
-        <v>1985486.358393581</v>
+        <v>2099728.113681446</v>
       </c>
       <c r="AE2" t="n">
-        <v>2716630.029030192</v>
+        <v>2872940.638605587</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.222248894524516e-06</v>
+        <v>1.824708445391425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>2457358.671873742</v>
+        <v>2598751.21625458</v>
       </c>
     </row>
     <row r="3">
@@ -37186,28 +37186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1075.746586188771</v>
+        <v>1157.323456864511</v>
       </c>
       <c r="AB3" t="n">
-        <v>1471.8839378134</v>
+        <v>1583.501011189483</v>
       </c>
       <c r="AC3" t="n">
-        <v>1331.409400590569</v>
+        <v>1432.373897139186</v>
       </c>
       <c r="AD3" t="n">
-        <v>1075746.586188771</v>
+        <v>1157323.456864511</v>
       </c>
       <c r="AE3" t="n">
-        <v>1471883.9378134</v>
+        <v>1583501.011189483</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.744228098257651e-06</v>
+        <v>2.603976780701373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.77916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1331409.400590569</v>
+        <v>1432373.897139186</v>
       </c>
     </row>
     <row r="4">
@@ -37292,28 +37292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>895.9696858046459</v>
+        <v>969.3803353273547</v>
       </c>
       <c r="AB4" t="n">
-        <v>1225.905251510751</v>
+        <v>1326.348940837006</v>
       </c>
       <c r="AC4" t="n">
-        <v>1108.906574875391</v>
+        <v>1199.764059465952</v>
       </c>
       <c r="AD4" t="n">
-        <v>895969.6858046459</v>
+        <v>969380.3353273547</v>
       </c>
       <c r="AE4" t="n">
-        <v>1225905.251510751</v>
+        <v>1326348.940837006</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.927549710171155e-06</v>
+        <v>2.877659575572276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.99166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1108906.574875391</v>
+        <v>1199764.059465952</v>
       </c>
     </row>
     <row r="5">
@@ -37398,28 +37398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>816.471877937759</v>
+        <v>881.7163958159881</v>
       </c>
       <c r="AB5" t="n">
-        <v>1117.132843591519</v>
+        <v>1206.403271337495</v>
       </c>
       <c r="AC5" t="n">
-        <v>1010.515252904937</v>
+        <v>1091.265836318669</v>
       </c>
       <c r="AD5" t="n">
-        <v>816471.877937759</v>
+        <v>881716.3958159881</v>
       </c>
       <c r="AE5" t="n">
-        <v>1117132.843591519</v>
+        <v>1206403.271337494</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.024713308938348e-06</v>
+        <v>3.022716151241417e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1010515.252904937</v>
+        <v>1091265.836318669</v>
       </c>
     </row>
     <row r="6">
@@ -37504,28 +37504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>756.4017096151655</v>
+        <v>821.7314788394151</v>
       </c>
       <c r="AB6" t="n">
-        <v>1034.942189183756</v>
+        <v>1124.32926158238</v>
       </c>
       <c r="AC6" t="n">
-        <v>936.1687591985427</v>
+        <v>1017.024854862987</v>
       </c>
       <c r="AD6" t="n">
-        <v>756401.7096151655</v>
+        <v>821731.4788394151</v>
       </c>
       <c r="AE6" t="n">
-        <v>1034942.189183756</v>
+        <v>1124329.26158238</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.082256799470374e-06</v>
+        <v>3.108623443627996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>936168.7591985427</v>
+        <v>1017024.854862987</v>
       </c>
     </row>
     <row r="7">
@@ -37610,28 +37610,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>717.3941945373003</v>
+        <v>782.5533715609578</v>
       </c>
       <c r="AB7" t="n">
-        <v>981.5703861641099</v>
+        <v>1070.724046787888</v>
       </c>
       <c r="AC7" t="n">
-        <v>887.8906861512959</v>
+        <v>968.5356465330889</v>
       </c>
       <c r="AD7" t="n">
-        <v>717394.1945373004</v>
+        <v>782553.3715609577</v>
       </c>
       <c r="AE7" t="n">
-        <v>981570.3861641099</v>
+        <v>1070724.046787888</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.121562462402085e-06</v>
+        <v>3.167303288154347e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.43958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>887890.6861512959</v>
+        <v>968535.6465330889</v>
       </c>
     </row>
     <row r="8">
@@ -37716,28 +37716,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>702.6347752175769</v>
+        <v>767.7939522412343</v>
       </c>
       <c r="AB8" t="n">
-        <v>961.3758975112388</v>
+        <v>1050.529558135016</v>
       </c>
       <c r="AC8" t="n">
-        <v>869.623531152312</v>
+        <v>950.2684915341049</v>
       </c>
       <c r="AD8" t="n">
-        <v>702634.7752175769</v>
+        <v>767793.9522412342</v>
       </c>
       <c r="AE8" t="n">
-        <v>961375.8975112388</v>
+        <v>1050529.558135016</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.135869723709229e-06</v>
+        <v>3.188662751561939e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.33541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>869623.5311523121</v>
+        <v>950268.4915341049</v>
       </c>
     </row>
     <row r="9">
@@ -37822,28 +37822,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>705.4290221345086</v>
+        <v>770.5881991581658</v>
       </c>
       <c r="AB9" t="n">
-        <v>965.1991094164586</v>
+        <v>1054.352770040236</v>
       </c>
       <c r="AC9" t="n">
-        <v>873.0818610792093</v>
+        <v>953.7268214610021</v>
       </c>
       <c r="AD9" t="n">
-        <v>705429.0221345086</v>
+        <v>770588.1991581658</v>
       </c>
       <c r="AE9" t="n">
-        <v>965199.1094164585</v>
+        <v>1054352.770040236</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.136026946360956e-06</v>
+        <v>3.188897470940044e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>873081.8610792093</v>
+        <v>953726.8214610021</v>
       </c>
     </row>
   </sheetData>
